--- a/data/Daily_Scores.xlsx
+++ b/data/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Muchacho3</t>
+          <t>agilar radikal</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Bonjour2</t>
+          <t>Rühl Jr.</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Muchacho4</t>
+          <t>Mindful Multi Threader</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Bonjour6</t>
+          <t>OutOfShampoo</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -506,17 +506,17 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Muchacho1</t>
+          <t>vladimir gluten</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Bonjour</t>
+          <t>RESTful Gainz</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Muchachos</t>
+          <t>Final Bosses</t>
         </is>
       </c>
     </row>
@@ -1430,6 +1430,234 @@
       </c>
       <c r="Q17" t="n">
         <v>42.41606056121162</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>8.636691863477495</v>
+      </c>
+      <c r="D18" t="n">
+        <v>9.992136434509664</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7.691349432836441</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-3.867202822082555</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>9.435877152011592</v>
+      </c>
+      <c r="I18" t="n">
+        <v>7.963662243002353</v>
+      </c>
+      <c r="J18" t="n">
+        <v>8.911144596954657</v>
+      </c>
+      <c r="K18" t="n">
+        <v>7.730431521494666</v>
+      </c>
+      <c r="L18" t="n">
+        <v>9.360910712725017</v>
+      </c>
+      <c r="M18" t="n">
+        <v>7.713919952757394</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6.358044399438294</v>
+      </c>
+      <c r="O18" t="n">
+        <v>10</v>
+      </c>
+      <c r="P18" t="n">
+        <v>47.36325099351526</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>42.56371449360976</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>8.345333524177599</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>8.034107553881565</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5.848124626825165</v>
+      </c>
+      <c r="J19" t="n">
+        <v>7.182874166706183</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>7.894608356001953</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>8.562288164902816</v>
+      </c>
+      <c r="P19" t="n">
+        <v>29.48789531443612</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>21.37944107805917</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>9.566666666666666</v>
+      </c>
+      <c r="D20" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.7333333333333343</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>7.466666666666665</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>8.633333333333333</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="M20" t="n">
+        <v>6.533333333333335</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6.266666666666666</v>
+      </c>
+      <c r="O20" t="n">
+        <v>10</v>
+      </c>
+      <c r="P20" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>7.917244190786791</v>
+      </c>
+      <c r="D21" t="n">
+        <v>9.456197805796624</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>8.018813213223677</v>
+      </c>
+      <c r="P21" t="n">
+        <v>22.93605740401047</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>9.456197805796624</v>
       </c>
     </row>
   </sheetData>

--- a/data/Daily_Scores.xlsx
+++ b/data/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1567,7 +1567,7 @@
         <v>0.7333333333333343</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>8.266666666666667</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>10</v>
       </c>
       <c r="P20" t="n">
-        <v>35.9</v>
+        <v>44.16666666666667</v>
       </c>
       <c r="Q20" t="n">
         <v>35</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1654,10 +1654,238 @@
         <v>8.018813213223677</v>
       </c>
       <c r="P21" t="n">
-        <v>22.93605740401047</v>
+        <v>29.93605740401047</v>
       </c>
       <c r="Q21" t="n">
         <v>9.456197805796624</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>10</v>
+      </c>
+      <c r="D22" t="n">
+        <v>10</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7.597752216850486</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>10</v>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+      <c r="I22" t="n">
+        <v>9.105796444093441</v>
+      </c>
+      <c r="J22" t="n">
+        <v>9.850183048502286</v>
+      </c>
+      <c r="K22" t="n">
+        <v>5.821510889965965</v>
+      </c>
+      <c r="L22" t="n">
+        <v>8.784005010929134</v>
+      </c>
+      <c r="M22" t="n">
+        <v>9.460769511890376</v>
+      </c>
+      <c r="N22" t="n">
+        <v>10</v>
+      </c>
+      <c r="O22" t="n">
+        <v>9.732984731637593</v>
+      </c>
+      <c r="P22" t="n">
+        <v>57.47296923516246</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>52.88003261870683</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>8.665387925628306</v>
+      </c>
+      <c r="D23" t="n">
+        <v>10</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>10</v>
+      </c>
+      <c r="H23" t="n">
+        <v>9.91734672525633</v>
+      </c>
+      <c r="I23" t="n">
+        <v>8.104136134180102</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>6.348827557584562</v>
+      </c>
+      <c r="P23" t="n">
+        <v>33.11835161739297</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>34.91734672525633</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>10</v>
+      </c>
+      <c r="D24" t="n">
+        <v>10</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4.933333333333334</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>10</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8.766666666666667</v>
+      </c>
+      <c r="I24" t="n">
+        <v>7.399999999999999</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>9.733333333333333</v>
+      </c>
+      <c r="L24" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="M24" t="n">
+        <v>8.233333333333333</v>
+      </c>
+      <c r="N24" t="n">
+        <v>10</v>
+      </c>
+      <c r="O24" t="n">
+        <v>10</v>
+      </c>
+      <c r="P24" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>51.66666666666667</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>9.664375982761632</v>
+      </c>
+      <c r="D25" t="n">
+        <v>10</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>9.331002331002328</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>7</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>7.548245614035088</v>
+      </c>
+      <c r="M25" t="n">
+        <v>7.617927625226895</v>
+      </c>
+      <c r="N25" t="n">
+        <v>10</v>
+      </c>
+      <c r="O25" t="n">
+        <v>8.280047370460514</v>
+      </c>
+      <c r="P25" t="n">
+        <v>42.49266896725724</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>26.94892995622922</v>
       </c>
     </row>
   </sheetData>

--- a/data/Daily_Scores.xlsx
+++ b/data/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1795,7 +1795,7 @@
         <v>4.933333333333334</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G24" t="n">
         <v>10</v>
@@ -1825,7 +1825,7 @@
         <v>10</v>
       </c>
       <c r="P24" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="Q24" t="n">
         <v>51.66666666666667</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G25" t="n">
         <v>9.331002331002328</v>
@@ -1882,10 +1882,238 @@
         <v>8.280047370460514</v>
       </c>
       <c r="P25" t="n">
-        <v>42.49266896725724</v>
+        <v>49.49266896725724</v>
       </c>
       <c r="Q25" t="n">
         <v>26.94892995622922</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>9.837036250543322</v>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5.741553007100565</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7.527231535045082</v>
+      </c>
+      <c r="G26" t="n">
+        <v>10</v>
+      </c>
+      <c r="H26" t="n">
+        <v>9.418963200479389</v>
+      </c>
+      <c r="I26" t="n">
+        <v>9.473821657578963</v>
+      </c>
+      <c r="J26" t="n">
+        <v>8.222965507587022</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-5.690588933089119</v>
+      </c>
+      <c r="M26" t="n">
+        <v>9.563785039151425</v>
+      </c>
+      <c r="N26" t="n">
+        <v>10</v>
+      </c>
+      <c r="O26" t="n">
+        <v>10</v>
+      </c>
+      <c r="P26" t="n">
+        <v>49.37046601766527</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>44.72430124673138</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>5.057930714865021</v>
+      </c>
+      <c r="D27" t="n">
+        <v>9.29574304839916</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>8.977937064714554</v>
+      </c>
+      <c r="H27" t="n">
+        <v>6.144460321337485</v>
+      </c>
+      <c r="I27" t="n">
+        <v>10</v>
+      </c>
+      <c r="J27" t="n">
+        <v>9.868270332187858</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>10</v>
+      </c>
+      <c r="N27" t="n">
+        <v>9.878965295707722</v>
+      </c>
+      <c r="O27" t="n">
+        <v>10</v>
+      </c>
+      <c r="P27" t="n">
+        <v>44.8051663427606</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>34.4181404344512</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>10</v>
+      </c>
+      <c r="D28" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10</v>
+      </c>
+      <c r="F28" t="n">
+        <v>10</v>
+      </c>
+      <c r="G28" t="n">
+        <v>10</v>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1.466666666666665</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>10</v>
+      </c>
+      <c r="M28" t="n">
+        <v>8.066666666666666</v>
+      </c>
+      <c r="N28" t="n">
+        <v>10</v>
+      </c>
+      <c r="O28" t="n">
+        <v>9.233333333333333</v>
+      </c>
+      <c r="P28" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>48.06666666666666</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>10</v>
+      </c>
+      <c r="D29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>7</v>
+      </c>
+      <c r="G29" t="n">
+        <v>7.631313131313133</v>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+      <c r="I29" t="n">
+        <v>7</v>
+      </c>
+      <c r="J29" t="n">
+        <v>7</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>8.827485380116961</v>
+      </c>
+      <c r="M29" t="n">
+        <v>7.424825242343491</v>
+      </c>
+      <c r="N29" t="n">
+        <v>10</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>49.82748538011696</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>35.05613837365662</v>
       </c>
     </row>
   </sheetData>

--- a/data/Daily_Scores.xlsx
+++ b/data/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2116,6 +2116,462 @@
         <v>35.05613837365662</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-11-08</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>10</v>
+      </c>
+      <c r="G30" t="n">
+        <v>10</v>
+      </c>
+      <c r="H30" t="n">
+        <v>9.133353397603122</v>
+      </c>
+      <c r="I30" t="n">
+        <v>10</v>
+      </c>
+      <c r="J30" t="n">
+        <v>8.104022703830902</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>8.945656952703034</v>
+      </c>
+      <c r="N30" t="n">
+        <v>10</v>
+      </c>
+      <c r="O30" t="n">
+        <v>10</v>
+      </c>
+      <c r="P30" t="n">
+        <v>48.1040227038309</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>28.07901035030616</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-11-08</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>7.012189166437789</v>
+      </c>
+      <c r="G31" t="n">
+        <v>8.514056224899598</v>
+      </c>
+      <c r="H31" t="n">
+        <v>5.51206904353242</v>
+      </c>
+      <c r="I31" t="n">
+        <v>10</v>
+      </c>
+      <c r="J31" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>9.811250925240563</v>
+      </c>
+      <c r="N31" t="n">
+        <v>10</v>
+      </c>
+      <c r="O31" t="n">
+        <v>8.061784063862888</v>
+      </c>
+      <c r="P31" t="n">
+        <v>42.47397323030068</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>23.83737619367258</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-11-08</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>8.266666666666667</v>
+      </c>
+      <c r="G32" t="n">
+        <v>8.933333333333334</v>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3.133333333333333</v>
+      </c>
+      <c r="N32" t="n">
+        <v>4.066666666666666</v>
+      </c>
+      <c r="O32" t="n">
+        <v>9.466666666666667</v>
+      </c>
+      <c r="P32" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>22.06666666666667</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-11-08</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>7</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>7.85894736842105</v>
+      </c>
+      <c r="I33" t="n">
+        <v>7</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>7.85894736842105</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>8.952009156345813</v>
+      </c>
+      <c r="H34" t="n">
+        <v>8.291428091924072</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4.068659364455451</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2.906896472308218</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>8.737081934658089</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-6.799278911678519</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-0.0845129192878577</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.09176400579729266</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>25.98051918292797</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>7.012189166437789</v>
+      </c>
+      <c r="G35" t="n">
+        <v>9.62962962962963</v>
+      </c>
+      <c r="H35" t="n">
+        <v>7.890173410404625</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5.84005376344086</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>10</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>12.85224292987865</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>27.51980304003425</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>10</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>7</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Daily_Scores.xlsx
+++ b/data/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>8.466666666666667</v>
       </c>
       <c r="L28" t="n">
         <v>10</v>
@@ -2056,7 +2056,7 @@
         <v>50.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.06666666666666</v>
+        <v>56.53333333333333</v>
       </c>
     </row>
     <row r="29">
@@ -2128,10 +2128,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>9.170615607102505</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>7.705796118115087</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2167,10 +2167,10 @@
         <v>10</v>
       </c>
       <c r="P30" t="n">
-        <v>48.1040227038309</v>
+        <v>57.2746383109334</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.07901035030616</v>
+        <v>35.78480646842124</v>
       </c>
     </row>
     <row r="31">
@@ -2185,7 +2185,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>5.40551500405515</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>8.061784063862888</v>
       </c>
       <c r="P31" t="n">
-        <v>42.47397323030068</v>
+        <v>47.87948823435583</v>
       </c>
       <c r="Q31" t="n">
         <v>23.83737619367258</v>
@@ -2242,13 +2242,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>6.066666666666666</v>
       </c>
       <c r="F32" t="n">
         <v>8.266666666666667</v>
@@ -2266,10 +2266,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>6.266666666666666</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>6.533333333333335</v>
       </c>
       <c r="M32" t="n">
         <v>3.133333333333333</v>
@@ -2281,10 +2281,10 @@
         <v>9.466666666666667</v>
       </c>
       <c r="P32" t="n">
-        <v>21.8</v>
+        <v>38.33333333333334</v>
       </c>
       <c r="Q32" t="n">
-        <v>22.06666666666667</v>
+        <v>43.3</v>
       </c>
     </row>
     <row r="33">
@@ -2299,10 +2299,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>8.662656976231562</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -2338,10 +2338,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q33" t="n">
-        <v>7.85894736842105</v>
+        <v>16.52160434465261</v>
       </c>
     </row>
     <row r="34">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>9.235434770111572</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -2395,10 +2395,10 @@
         <v>-0.0845129192878577</v>
       </c>
       <c r="P34" t="n">
-        <v>0.09176400579729266</v>
+        <v>10.09176400579729</v>
       </c>
       <c r="Q34" t="n">
-        <v>25.98051918292797</v>
+        <v>35.21595395303954</v>
       </c>
     </row>
     <row r="35">
@@ -2413,10 +2413,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>7.043534861191003</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>6.487714908653638</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>12.85224292987865</v>
+        <v>19.89577779106965</v>
       </c>
       <c r="Q35" t="n">
-        <v>27.51980304003425</v>
+        <v>34.00751794868789</v>
       </c>
     </row>
     <row r="36">
@@ -2470,22 +2470,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>8.833333333333334</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>2.666666666666668</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>0.6666666666666679</v>
       </c>
       <c r="I36" t="n">
         <v>10</v>
@@ -2494,25 +2494,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.6666666666666679</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>10</v>
+        <v>28.83333333333334</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="37">
@@ -2551,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -2560,16 +2560,244 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>6.681104375978382</v>
+      </c>
+      <c r="D38" t="n">
+        <v>6.334705086933842</v>
+      </c>
+      <c r="E38" t="n">
+        <v>7.247807523057105</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>7.094262382765716</v>
+      </c>
+      <c r="H38" t="n">
+        <v>6.028198395529012</v>
+      </c>
+      <c r="I38" t="n">
+        <v>6.962144480808799</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7.272119953962245</v>
+      </c>
+      <c r="K38" t="n">
+        <v>7.930733916736364</v>
+      </c>
+      <c r="L38" t="n">
+        <v>8.479293529957253</v>
+      </c>
+      <c r="M38" t="n">
+        <v>8.336289567104227</v>
+      </c>
+      <c r="N38" t="n">
+        <v>9.656351236186033</v>
+      </c>
+      <c r="O38" t="n">
+        <v>6.447576870117802</v>
+      </c>
+      <c r="P38" t="n">
+        <v>45.49859044701051</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>42.97199687212627</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>7.012189166437789</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>10</v>
+      </c>
+      <c r="J39" t="n">
+        <v>6.155555555555556</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="n">
+        <v>5.590277777777778</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>28.75802249977112</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="D40" t="n">
+        <v>6.866666666666667</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.6666666666666679</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>9.166666666666666</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>10</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.6666666666666679</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.866666666666667</v>
+      </c>
+      <c r="N40" t="n">
+        <v>7.133333333333333</v>
+      </c>
+      <c r="O40" t="n">
+        <v>10</v>
+      </c>
+      <c r="P40" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>28.56666666666667</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>7.567817832391824</v>
+      </c>
+      <c r="D41" t="n">
         <v>7</v>
       </c>
-      <c r="Q37" t="n">
-        <v>0</v>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>7</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>9.481724493749979</v>
+      </c>
+      <c r="P41" t="n">
+        <v>24.0495423261418</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/Daily_Scores.xlsx
+++ b/data/Daily_Scores.xlsx
@@ -1444,49 +1444,49 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>8.636691863477495</v>
+        <v>9.335159025982589</v>
       </c>
       <c r="D18" t="n">
-        <v>9.992136434509664</v>
+        <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>7.691349432836441</v>
+        <v>7.737181942413852</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.867202822082555</v>
+        <v>4.608100173021744</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>-3.274088481371928</v>
       </c>
       <c r="H18" t="n">
-        <v>9.435877152011592</v>
+        <v>9.699913027912215</v>
       </c>
       <c r="I18" t="n">
-        <v>7.963662243002353</v>
+        <v>8.38628219936235</v>
       </c>
       <c r="J18" t="n">
-        <v>8.911144596954657</v>
+        <v>9.389169561655885</v>
       </c>
       <c r="K18" t="n">
-        <v>7.730431521494666</v>
+        <v>8.709352777346547</v>
       </c>
       <c r="L18" t="n">
-        <v>9.360910712725017</v>
+        <v>9.712306494181206</v>
       </c>
       <c r="M18" t="n">
-        <v>7.713919952757394</v>
+        <v>8.176856473347812</v>
       </c>
       <c r="N18" t="n">
-        <v>6.358044399438294</v>
+        <v>6.932263172842727</v>
       </c>
       <c r="O18" t="n">
         <v>10</v>
       </c>
       <c r="P18" t="n">
-        <v>47.36325099351526</v>
+        <v>58.3632806270465</v>
       </c>
       <c r="Q18" t="n">
-        <v>42.56371449360976</v>
+        <v>41.0492157396485</v>
       </c>
     </row>
     <row r="19">
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>8.345333524177599</v>
+        <v>9.29574304839916</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1519,10 +1519,10 @@
         <v>8.034107553881565</v>
       </c>
       <c r="I19" t="n">
-        <v>5.848124626825165</v>
+        <v>6.594474298431309</v>
       </c>
       <c r="J19" t="n">
-        <v>7.182874166706183</v>
+        <v>8.272948656946474</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>8.562288164902816</v>
+        <v>10</v>
       </c>
       <c r="P19" t="n">
-        <v>29.48789531443612</v>
+        <v>32.76203131137974</v>
       </c>
       <c r="Q19" t="n">
-        <v>21.37944107805917</v>
+        <v>22.32985060228073</v>
       </c>
     </row>
     <row r="20">
@@ -1678,10 +1678,10 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>7.597752216850486</v>
+        <v>8.750176136961903</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>7.778097485393133</v>
       </c>
       <c r="G22" t="n">
         <v>10</v>
@@ -1690,31 +1690,31 @@
         <v>10</v>
       </c>
       <c r="I22" t="n">
-        <v>9.105796444093441</v>
+        <v>9.279380396477517</v>
       </c>
       <c r="J22" t="n">
-        <v>9.850183048502286</v>
+        <v>9.877227842327629</v>
       </c>
       <c r="K22" t="n">
-        <v>5.821510889965965</v>
+        <v>9.141962366733972</v>
       </c>
       <c r="L22" t="n">
-        <v>8.784005010929134</v>
+        <v>8.794907846991805</v>
       </c>
       <c r="M22" t="n">
-        <v>9.460769511890376</v>
+        <v>9.573281722674668</v>
       </c>
       <c r="N22" t="n">
         <v>10</v>
       </c>
       <c r="O22" t="n">
-        <v>9.732984731637593</v>
+        <v>9.815576062259611</v>
       </c>
       <c r="P22" t="n">
-        <v>57.47296923516246</v>
+        <v>65.5451896334497</v>
       </c>
       <c r="Q22" t="n">
-        <v>52.88003261870683</v>
+        <v>57.46542022637054</v>
       </c>
     </row>
     <row r="23">
@@ -1735,7 +1735,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>5.056281880438237</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1747,7 +1747,7 @@
         <v>9.91734672525633</v>
       </c>
       <c r="I23" t="n">
-        <v>8.104136134180102</v>
+        <v>8.519717201324433</v>
       </c>
       <c r="J23" t="n">
         <v>10</v>
@@ -1768,10 +1768,10 @@
         <v>6.348827557584562</v>
       </c>
       <c r="P23" t="n">
-        <v>33.11835161739297</v>
+        <v>33.5339326845373</v>
       </c>
       <c r="Q23" t="n">
-        <v>34.91734672525633</v>
+        <v>39.97362860569457</v>
       </c>
     </row>
     <row r="24">
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>9.733333333333333</v>
+        <v>10</v>
       </c>
       <c r="L24" t="n">
         <v>9.6</v>
@@ -1828,7 +1828,7 @@
         <v>57</v>
       </c>
       <c r="Q24" t="n">
-        <v>51.66666666666667</v>
+        <v>51.93333333333334</v>
       </c>
     </row>
     <row r="25">
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L25" t="n">
         <v>7.548245614035088</v>
@@ -1885,7 +1885,7 @@
         <v>49.49266896725724</v>
       </c>
       <c r="Q25" t="n">
-        <v>26.94892995622922</v>
+        <v>36.94892995622922</v>
       </c>
     </row>
     <row r="26">
@@ -1906,10 +1906,10 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>5.741553007100565</v>
+        <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>7.527231535045082</v>
+        <v>9.390619303364</v>
       </c>
       <c r="G26" t="n">
         <v>10</v>
@@ -1918,19 +1918,19 @@
         <v>9.418963200479389</v>
       </c>
       <c r="I26" t="n">
-        <v>9.473821657578963</v>
+        <v>9.570119162507314</v>
       </c>
       <c r="J26" t="n">
         <v>8.222965507587022</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L26" t="n">
-        <v>-5.690588933089119</v>
+        <v>10</v>
       </c>
       <c r="M26" t="n">
-        <v>9.563785039151425</v>
+        <v>10</v>
       </c>
       <c r="N26" t="n">
         <v>10</v>
@@ -1939,10 +1939,10 @@
         <v>10</v>
       </c>
       <c r="P26" t="n">
-        <v>49.37046601766527</v>
+        <v>67.02074022400166</v>
       </c>
       <c r="Q26" t="n">
-        <v>44.72430124673138</v>
+        <v>59.41896320047939</v>
       </c>
     </row>
     <row r="27">
@@ -1960,16 +1960,16 @@
         <v>5.057930714865021</v>
       </c>
       <c r="D27" t="n">
-        <v>9.29574304839916</v>
+        <v>9.533345429454553</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>9.77692460219534</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>5.383796298775598</v>
       </c>
       <c r="G27" t="n">
-        <v>8.977937064714554</v>
+        <v>9.168573026282345</v>
       </c>
       <c r="H27" t="n">
         <v>6.144460321337485</v>
@@ -1981,25 +1981,25 @@
         <v>9.868270332187858</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>6.606049492021146</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>7.316166266282552</v>
       </c>
       <c r="M27" t="n">
         <v>10</v>
       </c>
       <c r="N27" t="n">
-        <v>9.878965295707722</v>
+        <v>10</v>
       </c>
       <c r="O27" t="n">
         <v>10</v>
       </c>
       <c r="P27" t="n">
-        <v>44.8051663427606</v>
+        <v>57.62616361211103</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.4181404344512</v>
+        <v>51.22935287129087</v>
       </c>
     </row>
     <row r="28">
@@ -2134,7 +2134,7 @@
         <v>7.705796118115087</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F30" t="n">
         <v>10</v>
@@ -2152,10 +2152,10 @@
         <v>8.104022703830902</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>6.133291671956854</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M30" t="n">
         <v>8.945656952703034</v>
@@ -2167,10 +2167,10 @@
         <v>10</v>
       </c>
       <c r="P30" t="n">
-        <v>57.2746383109334</v>
+        <v>67.2746383109334</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.78480646842124</v>
+        <v>51.9180981403781</v>
       </c>
     </row>
     <row r="31">
@@ -2191,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>9.298528618470328</v>
       </c>
       <c r="F31" t="n">
         <v>7.012189166437789</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>8.782570233571834</v>
       </c>
       <c r="M31" t="n">
         <v>9.811250925240563</v>
@@ -2224,10 +2224,10 @@
         <v>8.061784063862888</v>
       </c>
       <c r="P31" t="n">
-        <v>47.87948823435583</v>
+        <v>56.66205846792766</v>
       </c>
       <c r="Q31" t="n">
-        <v>23.83737619367258</v>
+        <v>33.13590481214291</v>
       </c>
     </row>
     <row r="32">
@@ -2362,43 +2362,43 @@
         <v>9.235434770111572</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>8.952009156345813</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
-        <v>8.291428091924072</v>
+        <v>10</v>
       </c>
       <c r="I34" t="n">
-        <v>4.068659364455451</v>
+        <v>10</v>
       </c>
       <c r="J34" t="n">
-        <v>2.906896472308218</v>
+        <v>10</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M34" t="n">
-        <v>8.737081934658089</v>
+        <v>10</v>
       </c>
       <c r="N34" t="n">
-        <v>-6.799278911678519</v>
+        <v>10</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.0845129192878577</v>
+        <v>9.924035310753522</v>
       </c>
       <c r="P34" t="n">
-        <v>10.09176400579729</v>
+        <v>59.92403531075352</v>
       </c>
       <c r="Q34" t="n">
-        <v>35.21595395303954</v>
+        <v>59.23543477011157</v>
       </c>
     </row>
     <row r="35">
@@ -2419,43 +2419,43 @@
         <v>6.487714908653638</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F35" t="n">
         <v>7.012189166437789</v>
       </c>
       <c r="G35" t="n">
-        <v>9.62962962962963</v>
+        <v>9.985754985754987</v>
       </c>
       <c r="H35" t="n">
-        <v>7.890173410404625</v>
+        <v>8.338242453192226</v>
       </c>
       <c r="I35" t="n">
-        <v>5.84005376344086</v>
+        <v>10</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M35" t="n">
         <v>10</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>8.632127192982455</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>7.455557861243689</v>
       </c>
       <c r="P35" t="n">
-        <v>19.89577779106965</v>
+        <v>60.14340908185494</v>
       </c>
       <c r="Q35" t="n">
-        <v>34.00751794868789</v>
+        <v>54.81171234760085</v>
       </c>
     </row>
     <row r="36">
@@ -2584,10 +2584,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>6.681104375978382</v>
+        <v>7.614769866015459</v>
       </c>
       <c r="D38" t="n">
-        <v>6.334705086933842</v>
+        <v>7.31262668606617</v>
       </c>
       <c r="E38" t="n">
         <v>7.247807523057105</v>
@@ -2596,37 +2596,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>7.094262382765716</v>
+        <v>8.897626167111405</v>
       </c>
       <c r="H38" t="n">
-        <v>6.028198395529012</v>
+        <v>8.011764383339065</v>
       </c>
       <c r="I38" t="n">
-        <v>6.962144480808799</v>
+        <v>8.24343011593729</v>
       </c>
       <c r="J38" t="n">
-        <v>7.272119953962245</v>
+        <v>7.576886381203278</v>
       </c>
       <c r="K38" t="n">
-        <v>7.930733916736364</v>
+        <v>8.38628219936235</v>
       </c>
       <c r="L38" t="n">
-        <v>8.479293529957253</v>
+        <v>9.40653441164271</v>
       </c>
       <c r="M38" t="n">
-        <v>8.336289567104227</v>
+        <v>8.700332036793192</v>
       </c>
       <c r="N38" t="n">
-        <v>9.656351236186033</v>
+        <v>10</v>
       </c>
       <c r="O38" t="n">
-        <v>6.447576870117802</v>
+        <v>8.37045651848498</v>
       </c>
       <c r="P38" t="n">
-        <v>45.49859044701051</v>
+        <v>51.21207729328372</v>
       </c>
       <c r="Q38" t="n">
-        <v>42.97199687212627</v>
+        <v>48.55643899572929</v>
       </c>
     </row>
     <row r="39">
@@ -2653,7 +2653,7 @@
         <v>7.012189166437789</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>5.552844288546591</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2668,22 +2668,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>5.80212038780777</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="n">
-        <v>5.590277777777778</v>
+        <v>10</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>28.75802249977112</v>
+        <v>38.96986510980111</v>
       </c>
       <c r="Q39" t="n">
-        <v>5</v>
+        <v>10.55284428854659</v>
       </c>
     </row>
     <row r="40">
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>9.300000000000001</v>
+        <v>10</v>
       </c>
       <c r="D40" t="n">
         <v>6.866666666666667</v>
@@ -2728,7 +2728,7 @@
         <v>0.6666666666666679</v>
       </c>
       <c r="M40" t="n">
-        <v>1.866666666666667</v>
+        <v>6.333333333333332</v>
       </c>
       <c r="N40" t="n">
         <v>7.133333333333333</v>
@@ -2737,10 +2737,10 @@
         <v>10</v>
       </c>
       <c r="P40" t="n">
-        <v>27.1</v>
+        <v>27.8</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.56666666666667</v>
+        <v>33.03333333333333</v>
       </c>
     </row>
     <row r="41">
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>7.567817832391824</v>
+        <v>10</v>
       </c>
       <c r="D41" t="n">
         <v>7</v>
@@ -2794,7 +2794,7 @@
         <v>9.481724493749979</v>
       </c>
       <c r="P41" t="n">
-        <v>24.0495423261418</v>
+        <v>26.48172449374998</v>
       </c>
       <c r="Q41" t="n">
         <v>7</v>

--- a/data/Daily_Scores.xlsx
+++ b/data/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2602,31 +2602,31 @@
         <v>8.011764383339065</v>
       </c>
       <c r="I38" t="n">
-        <v>8.24343011593729</v>
+        <v>8.574825449008554</v>
       </c>
       <c r="J38" t="n">
         <v>7.576886381203278</v>
       </c>
       <c r="K38" t="n">
-        <v>8.38628219936235</v>
+        <v>8.443528309852088</v>
       </c>
       <c r="L38" t="n">
-        <v>9.40653441164271</v>
+        <v>10</v>
       </c>
       <c r="M38" t="n">
-        <v>8.700332036793192</v>
+        <v>8.712627012044523</v>
       </c>
       <c r="N38" t="n">
         <v>10</v>
       </c>
       <c r="O38" t="n">
-        <v>8.37045651848498</v>
+        <v>8.380638779578707</v>
       </c>
       <c r="P38" t="n">
-        <v>51.21207729328372</v>
+        <v>52.14712047580599</v>
       </c>
       <c r="Q38" t="n">
-        <v>48.55643899572929</v>
+        <v>48.62598008147036</v>
       </c>
     </row>
     <row r="39">
@@ -2668,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>5.80212038780777</v>
+        <v>7.955367995613777</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>38.96986510980111</v>
+        <v>41.12311271760712</v>
       </c>
       <c r="Q39" t="n">
         <v>10.55284428854659</v>
@@ -2704,7 +2704,7 @@
         <v>6.866666666666667</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6666666666666679</v>
+        <v>9.366666666666667</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>9.166666666666666</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>5.133333333333333</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0.6666666666666679</v>
       </c>
       <c r="M40" t="n">
-        <v>6.333333333333332</v>
+        <v>1.866666666666667</v>
       </c>
       <c r="N40" t="n">
         <v>7.133333333333333</v>
@@ -2737,10 +2737,10 @@
         <v>10</v>
       </c>
       <c r="P40" t="n">
-        <v>27.8</v>
+        <v>32.93333333333334</v>
       </c>
       <c r="Q40" t="n">
-        <v>33.03333333333333</v>
+        <v>37.26666666666667</v>
       </c>
     </row>
     <row r="41">
@@ -2798,6 +2798,234 @@
       </c>
       <c r="Q41" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-11-11</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>7.957633557948557</v>
+      </c>
+      <c r="D42" t="n">
+        <v>9.158004779837222</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2.156048126901347</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>8.359864227616825</v>
+      </c>
+      <c r="H42" t="n">
+        <v>9.015178861902983</v>
+      </c>
+      <c r="I42" t="n">
+        <v>10</v>
+      </c>
+      <c r="J42" t="n">
+        <v>7.745040218801943</v>
+      </c>
+      <c r="K42" t="n">
+        <v>8.024540805852512</v>
+      </c>
+      <c r="L42" t="n">
+        <v>8.657884689744085</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5.906023809253822</v>
+      </c>
+      <c r="N42" t="n">
+        <v>9.392846716372125</v>
+      </c>
+      <c r="O42" t="n">
+        <v>10</v>
+      </c>
+      <c r="P42" t="n">
+        <v>53.75340518286671</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>42.61966061136471</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-11-11</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>6.320313231091886</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>7.012189166437789</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>6.708865174025249</v>
+      </c>
+      <c r="I43" t="n">
+        <v>10</v>
+      </c>
+      <c r="J43" t="n">
+        <v>7.004581901489118</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>6.499616377205832</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>10</v>
+      </c>
+      <c r="P43" t="n">
+        <v>40.51638744513274</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>18.02917840511714</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-11-11</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>10</v>
+      </c>
+      <c r="D44" t="n">
+        <v>10</v>
+      </c>
+      <c r="E44" t="n">
+        <v>10</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>10</v>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+      <c r="I44" t="n">
+        <v>4.666666666666668</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>10</v>
+      </c>
+      <c r="L44" t="n">
+        <v>10</v>
+      </c>
+      <c r="M44" t="n">
+        <v>10</v>
+      </c>
+      <c r="N44" t="n">
+        <v>9.633333333333333</v>
+      </c>
+      <c r="O44" t="n">
+        <v>10</v>
+      </c>
+      <c r="P44" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-11-11</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>10</v>
+      </c>
+      <c r="D45" t="n">
+        <v>10</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>9.136752136752134</v>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+      <c r="I45" t="n">
+        <v>7</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>8.514423076923084</v>
+      </c>
+      <c r="L45" t="n">
+        <v>10</v>
+      </c>
+      <c r="M45" t="n">
+        <v>10</v>
+      </c>
+      <c r="N45" t="n">
+        <v>8.977874180830444</v>
+      </c>
+      <c r="O45" t="n">
+        <v>8.227800539013149</v>
+      </c>
+      <c r="P45" t="n">
+        <v>44.20567471984359</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>47.65117521367522</v>
       </c>
     </row>
   </sheetData>

--- a/data/Daily_Scores.xlsx
+++ b/data/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2812,10 +2812,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>7.957633557948557</v>
+        <v>7.968477363933855</v>
       </c>
       <c r="D42" t="n">
-        <v>9.158004779837222</v>
+        <v>9.313522120510722</v>
       </c>
       <c r="E42" t="n">
         <v>2.156048126901347</v>
@@ -2827,7 +2827,7 @@
         <v>8.359864227616825</v>
       </c>
       <c r="H42" t="n">
-        <v>9.015178861902983</v>
+        <v>9.055937390342661</v>
       </c>
       <c r="I42" t="n">
         <v>10</v>
@@ -2836,25 +2836,25 @@
         <v>7.745040218801943</v>
       </c>
       <c r="K42" t="n">
-        <v>8.024540805852512</v>
+        <v>8.084328947552111</v>
       </c>
       <c r="L42" t="n">
-        <v>8.657884689744085</v>
+        <v>8.919544052861259</v>
       </c>
       <c r="M42" t="n">
         <v>5.906023809253822</v>
       </c>
       <c r="N42" t="n">
-        <v>9.392846716372125</v>
+        <v>9.401539643177957</v>
       </c>
       <c r="O42" t="n">
         <v>10</v>
       </c>
       <c r="P42" t="n">
-        <v>53.75340518286671</v>
+        <v>54.03460127877501</v>
       </c>
       <c r="Q42" t="n">
-        <v>42.61966061136471</v>
+        <v>42.87572462217749</v>
       </c>
     </row>
     <row r="43">
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>6.320313231091886</v>
+        <v>6.660516640330285</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -2911,7 +2911,7 @@
         <v>40.51638744513274</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.02917840511714</v>
+        <v>18.36938181435553</v>
       </c>
     </row>
     <row r="44">
@@ -3026,6 +3026,462 @@
       </c>
       <c r="Q45" t="n">
         <v>47.65117521367522</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-11-12</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>9.582195164571502</v>
+      </c>
+      <c r="D46" t="n">
+        <v>8.174878183144823</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>9.838525008689016</v>
+      </c>
+      <c r="H46" t="n">
+        <v>9.946655206376663</v>
+      </c>
+      <c r="I46" t="n">
+        <v>8.712627012044523</v>
+      </c>
+      <c r="J46" t="n">
+        <v>6.293568838949453</v>
+      </c>
+      <c r="K46" t="n">
+        <v>9.707120308838819</v>
+      </c>
+      <c r="L46" t="n">
+        <v>8.623686623919362</v>
+      </c>
+      <c r="M46" t="n">
+        <v>8.024540805852512</v>
+      </c>
+      <c r="N46" t="n">
+        <v>10</v>
+      </c>
+      <c r="O46" t="n">
+        <v>8.387409739317997</v>
+      </c>
+      <c r="P46" t="n">
+        <v>51.59948737880283</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>45.69171951290183</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-11-12</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>5.303030303030303</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5.085120871637725</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>7.012189166437789</v>
+      </c>
+      <c r="G47" t="n">
+        <v>7.694321590158101</v>
+      </c>
+      <c r="H47" t="n">
+        <v>7.824858757062147</v>
+      </c>
+      <c r="I47" t="n">
+        <v>7.239049014818433</v>
+      </c>
+      <c r="J47" t="n">
+        <v>5.572737686139748</v>
+      </c>
+      <c r="K47" t="n">
+        <v>7.136752136752136</v>
+      </c>
+      <c r="L47" t="n">
+        <v>5.244123596289321</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5.123365408339501</v>
+      </c>
+      <c r="N47" t="n">
+        <v>7.317508515461169</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>37.68863828217676</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>32.86441876394961</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-11-12</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>8.633333333333333</v>
+      </c>
+      <c r="D48" t="n">
+        <v>8.066666666666666</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>10</v>
+      </c>
+      <c r="H48" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1.933333333333334</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>10</v>
+      </c>
+      <c r="L48" t="n">
+        <v>9.333333333333334</v>
+      </c>
+      <c r="M48" t="n">
+        <v>7.133333333333333</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>10</v>
+      </c>
+      <c r="P48" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>43.8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-11-12</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>7.717965512463628</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>9.331002331002328</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>7</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>7.182748538011698</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>7.235110741513159</v>
+      </c>
+      <c r="P49" t="n">
+        <v>21.41785927952485</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>17.04896784346596</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-11-13</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>4.015030487774472</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2.193838138126388</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>4.650665268934802</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-0.5281647048759295</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-1.271049816030665</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4.296404329581508</v>
+      </c>
+      <c r="K50" t="n">
+        <v>5.477580870558715</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-8.612975372900332</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4.641444042057166</v>
+      </c>
+      <c r="N50" t="n">
+        <v>4.717062439275012</v>
+      </c>
+      <c r="O50" t="n">
+        <v>4.627564263195182</v>
+      </c>
+      <c r="P50" t="n">
+        <v>7.772036330895176</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>16.43536361480114</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-11-13</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>7.012189166437789</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>7.012189166437789</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-11-13</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>10</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.199999999999999</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>9.433333333333334</v>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+      <c r="I52" t="n">
+        <v>10</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>10</v>
+      </c>
+      <c r="L52" t="n">
+        <v>9.133333333333333</v>
+      </c>
+      <c r="M52" t="n">
+        <v>7.399999999999999</v>
+      </c>
+      <c r="N52" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="O52" t="n">
+        <v>10</v>
+      </c>
+      <c r="P52" t="n">
+        <v>48.83333333333333</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>38.03333333333333</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-11-13</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>10</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+      <c r="I53" t="n">
+        <v>7</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>7</v>
+      </c>
+      <c r="N53" t="n">
+        <v>9.056989148063661</v>
+      </c>
+      <c r="O53" t="n">
+        <v>7.966566381776307</v>
+      </c>
+      <c r="P53" t="n">
+        <v>34.02355552983997</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/Daily_Scores.xlsx
+++ b/data/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3268,10 +3268,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4.015030487774472</v>
+        <v>8.543836578816945</v>
       </c>
       <c r="D50" t="n">
-        <v>2.193838138126388</v>
+        <v>8.571061684930758</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -3280,37 +3280,37 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>4.650665268934802</v>
+        <v>9.243517794660328</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.5281647048759295</v>
+        <v>8.663780572288148</v>
       </c>
       <c r="I50" t="n">
-        <v>-1.271049816030665</v>
+        <v>8.317923182355647</v>
       </c>
       <c r="J50" t="n">
-        <v>4.296404329581508</v>
+        <v>8.822609931346792</v>
       </c>
       <c r="K50" t="n">
-        <v>5.477580870558715</v>
+        <v>10</v>
       </c>
       <c r="L50" t="n">
         <v>-8.612975372900332</v>
       </c>
       <c r="M50" t="n">
-        <v>4.641444042057166</v>
+        <v>10</v>
       </c>
       <c r="N50" t="n">
-        <v>4.717062439275012</v>
+        <v>10</v>
       </c>
       <c r="O50" t="n">
-        <v>4.627564263195182</v>
+        <v>9.746517515065344</v>
       </c>
       <c r="P50" t="n">
-        <v>7.772036330895176</v>
+        <v>36.81791183468439</v>
       </c>
       <c r="Q50" t="n">
-        <v>16.43536361480114</v>
+        <v>46.47836005187924</v>
       </c>
     </row>
     <row r="51">
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>5.1701017046192</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -3337,37 +3337,37 @@
         <v>7.012189166437789</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>8.73931623931624</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>6.081118783566994</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>6.997561503365333</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>5.191673636617089</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>6.038552365748215</v>
       </c>
       <c r="P51" t="n">
-        <v>7.012189166437789</v>
+        <v>35.23997667216842</v>
       </c>
       <c r="Q51" t="n">
-        <v>5</v>
+        <v>39.99053672750244</v>
       </c>
     </row>
     <row r="52">
@@ -3482,6 +3482,234 @@
       </c>
       <c r="Q53" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-11-14</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>-1.838718911040107</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-11.35347578182325</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.9183173432202323</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.7737727970674968</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-3.882692789585549</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-16.30111468538141</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.9183173432202323</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-11-14</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>5.1701017046192</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>7.012189166437789</v>
+      </c>
+      <c r="G55" t="n">
+        <v>6.270906410451934</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>6.997561503365333</v>
+      </c>
+      <c r="K55" t="n">
+        <v>10</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>14.00975066980312</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>26.44100811507113</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-11-14</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>8.633333333333333</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>7.866666666666667</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1.733333333333334</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>10.36666666666667</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>7.866666666666667</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-11-14</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>7.270343336036768</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>7.270343336036768</v>
       </c>
     </row>
   </sheetData>

--- a/data/Daily_Scores.xlsx
+++ b/data/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G46" t="n">
         <v>9.838525008689016</v>
@@ -3079,7 +3079,7 @@
         <v>8.387409739317997</v>
       </c>
       <c r="P46" t="n">
-        <v>51.59948737880283</v>
+        <v>61.59948737880283</v>
       </c>
       <c r="Q46" t="n">
         <v>45.69171951290183</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>7.012189166437789</v>
+        <v>10</v>
       </c>
       <c r="G47" t="n">
         <v>7.694321590158101</v>
@@ -3130,13 +3130,13 @@
         <v>5.123365408339501</v>
       </c>
       <c r="N47" t="n">
-        <v>7.317508515461169</v>
+        <v>8.363001078827111</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>37.68863828217676</v>
+        <v>41.72194167910492</v>
       </c>
       <c r="Q47" t="n">
         <v>32.86441876394961</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>0.9408422596008991</v>
       </c>
       <c r="G50" t="n">
         <v>9.243517794660328</v>
@@ -3295,7 +3295,7 @@
         <v>10</v>
       </c>
       <c r="L50" t="n">
-        <v>-8.612975372900332</v>
+        <v>9.424610712170567</v>
       </c>
       <c r="M50" t="n">
         <v>10</v>
@@ -3307,7 +3307,7 @@
         <v>9.746517515065344</v>
       </c>
       <c r="P50" t="n">
-        <v>36.81791183468439</v>
+        <v>55.79634017935619</v>
       </c>
       <c r="Q50" t="n">
         <v>46.47836005187924</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>7.012189166437789</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>8.73931623931624</v>
@@ -3352,19 +3352,19 @@
         <v>10</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>5.941619585687382</v>
       </c>
       <c r="M51" t="n">
         <v>10</v>
       </c>
       <c r="N51" t="n">
-        <v>5.191673636617089</v>
+        <v>6.132616943646436</v>
       </c>
       <c r="O51" t="n">
         <v>6.038552365748215</v>
       </c>
       <c r="P51" t="n">
-        <v>35.23997667216842</v>
+        <v>35.11035039844737</v>
       </c>
       <c r="Q51" t="n">
         <v>39.99053672750244</v>
@@ -3496,49 +3496,49 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>-1.838718911040107</v>
+        <v>9.332761839519099</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>7.467115633468339</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>0.2969140026353995</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>9.070459600795701</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I54" t="n">
-        <v>-11.35347578182325</v>
+        <v>10</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>9.863732834603985</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>9.299092612587293</v>
       </c>
       <c r="M54" t="n">
-        <v>0.9183173432202323</v>
+        <v>8.531918919887604</v>
       </c>
       <c r="N54" t="n">
-        <v>0.7737727970674968</v>
+        <v>10</v>
       </c>
       <c r="O54" t="n">
-        <v>-3.882692789585549</v>
+        <v>9.515892079774515</v>
       </c>
       <c r="P54" t="n">
-        <v>-16.30111468538141</v>
+        <v>58.3083933691203</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.9183173432202323</v>
+        <v>45.06949415415164</v>
       </c>
     </row>
     <row r="55">
@@ -3556,46 +3556,46 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>5.1701017046192</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>7.012189166437789</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>6.270906410451934</v>
+        <v>6.335470085470085</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>9.418344370151321</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J55" t="n">
-        <v>6.997561503365333</v>
+        <v>10</v>
       </c>
       <c r="K55" t="n">
-        <v>10</v>
+        <v>6.722853091440865</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>6.429866778266025</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>6.306865704207428</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>7.317216573286298</v>
       </c>
       <c r="P55" t="n">
-        <v>14.00975066980312</v>
+        <v>40.05394905575974</v>
       </c>
       <c r="Q55" t="n">
-        <v>26.44100811507113</v>
+        <v>27.47666754706227</v>
       </c>
     </row>
     <row r="56">
@@ -3613,7 +3613,7 @@
         <v>8.633333333333333</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -3625,19 +3625,19 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>9.966666666666667</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>8.733333333333333</v>
       </c>
       <c r="M56" t="n">
         <v>7.866666666666667</v>
@@ -3646,13 +3646,13 @@
         <v>1.733333333333334</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>9.033333333333333</v>
       </c>
       <c r="P56" t="n">
-        <v>10.36666666666667</v>
+        <v>38.13333333333333</v>
       </c>
       <c r="Q56" t="n">
-        <v>7.866666666666667</v>
+        <v>37.83333333333334</v>
       </c>
     </row>
     <row r="57">
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -3682,10 +3682,10 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>7.202105263157894</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -3706,10 +3706,238 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q57" t="n">
-        <v>7.270343336036768</v>
+        <v>24.47244859919466</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-11-15</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>6.398844880446932</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.2276847321393463</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>7.405866861022643</v>
+      </c>
+      <c r="H58" t="n">
+        <v>5.697982251741474</v>
+      </c>
+      <c r="I58" t="n">
+        <v>6.711042531874136</v>
+      </c>
+      <c r="J58" t="n">
+        <v>5.157989775476836</v>
+      </c>
+      <c r="K58" t="n">
+        <v>5.805912347530634</v>
+      </c>
+      <c r="L58" t="n">
+        <v>3.599131426246492</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4.337113151265865</v>
+      </c>
+      <c r="N58" t="n">
+        <v>7.627653524032286</v>
+      </c>
+      <c r="O58" t="n">
+        <v>6.447576870117802</v>
+      </c>
+      <c r="P58" t="n">
+        <v>35.94223900819448</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>23.47455934369996</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-11-15</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>5.97934472934473</v>
+      </c>
+      <c r="H59" t="n">
+        <v>5.107043459644616</v>
+      </c>
+      <c r="I59" t="n">
+        <v>7.551020408163265</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>7.551020408163265</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>16.08638818898935</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-11-15</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>10</v>
+      </c>
+      <c r="D60" t="n">
+        <v>4.199999999999999</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>10</v>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+      <c r="I60" t="n">
+        <v>10</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>10</v>
+      </c>
+      <c r="L60" t="n">
+        <v>10</v>
+      </c>
+      <c r="M60" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="N60" t="n">
+        <v>10</v>
+      </c>
+      <c r="O60" t="n">
+        <v>10</v>
+      </c>
+      <c r="P60" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-11-15</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>9.664375982761632</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>10</v>
+      </c>
+      <c r="H61" t="n">
+        <v>8.566315789473684</v>
+      </c>
+      <c r="I61" t="n">
+        <v>7</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>7.576923076923083</v>
+      </c>
+      <c r="L61" t="n">
+        <v>9.878289473684212</v>
+      </c>
+      <c r="M61" t="n">
+        <v>8.969644305410728</v>
+      </c>
+      <c r="N61" t="n">
+        <v>10</v>
+      </c>
+      <c r="O61" t="n">
+        <v>8.280047370460514</v>
+      </c>
+      <c r="P61" t="n">
+        <v>44.82271282690636</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>35.1128831718075</v>
       </c>
     </row>
   </sheetData>

--- a/data/Daily_Scores.xlsx
+++ b/data/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3940,6 +3940,462 @@
         <v>35.1128831718075</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-11-16</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-11-16</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-11-16</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-11-16</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-11-17</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-11-17</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-11-17</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-11-17</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Daily_Scores.xlsx
+++ b/data/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4396,6 +4396,462 @@
         <v>0</v>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Daily_Scores.xlsx
+++ b/data/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4852,6 +4852,234 @@
         <v>0</v>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Daily_Scores.xlsx
+++ b/data/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5080,6 +5080,690 @@
         <v>0</v>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2024-11-23</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2024-11-23</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2024-11-23</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2024-11-23</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Daily_Scores.xlsx
+++ b/data/Daily_Scores.xlsx
@@ -3274,7 +3274,7 @@
         <v>8.571061684930758</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>8.65933836829641</v>
       </c>
       <c r="F50" t="n">
         <v>0.9408422596008991</v>
@@ -3310,7 +3310,7 @@
         <v>55.79634017935619</v>
       </c>
       <c r="Q50" t="n">
-        <v>46.47836005187924</v>
+        <v>55.13769842017565</v>
       </c>
     </row>
     <row r="51">
@@ -3388,7 +3388,7 @@
         <v>1.199999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>48.83333333333333</v>
       </c>
       <c r="Q52" t="n">
-        <v>38.03333333333333</v>
+        <v>47.86666666666667</v>
       </c>
     </row>
     <row r="53">
@@ -3502,10 +3502,10 @@
         <v>7.467115633468339</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2969140026353995</v>
+        <v>8.690865549442515</v>
       </c>
       <c r="G54" t="n">
         <v>9.070459600795701</v>
@@ -3535,10 +3535,10 @@
         <v>9.515892079774515</v>
       </c>
       <c r="P54" t="n">
-        <v>58.3083933691203</v>
+        <v>66.70234491592741</v>
       </c>
       <c r="Q54" t="n">
-        <v>45.06949415415164</v>
+        <v>55.06949415415164</v>
       </c>
     </row>
     <row r="55">
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -3595,7 +3595,7 @@
         <v>40.05394905575974</v>
       </c>
       <c r="Q55" t="n">
-        <v>27.47666754706227</v>
+        <v>37.47666754706227</v>
       </c>
     </row>
     <row r="56">
@@ -3616,7 +3616,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>5.866666666666667</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>38.13333333333333</v>
       </c>
       <c r="Q56" t="n">
-        <v>37.83333333333334</v>
+        <v>43.7</v>
       </c>
     </row>
     <row r="57">
@@ -3724,34 +3724,34 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>6.398844880446932</v>
+        <v>9.571049638334092</v>
       </c>
       <c r="D58" t="n">
-        <v>0.2276847321393463</v>
+        <v>5.961346288739644</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>9.331285791736059</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G58" t="n">
-        <v>7.405866861022643</v>
+        <v>9.752264859836558</v>
       </c>
       <c r="H58" t="n">
-        <v>5.697982251741474</v>
+        <v>10</v>
       </c>
       <c r="I58" t="n">
-        <v>6.711042531874136</v>
+        <v>8.749242538296343</v>
       </c>
       <c r="J58" t="n">
-        <v>5.157989775476836</v>
+        <v>7.423970393230333</v>
       </c>
       <c r="K58" t="n">
-        <v>5.805912347530634</v>
+        <v>8.955561117469689</v>
       </c>
       <c r="L58" t="n">
-        <v>3.599131426246492</v>
+        <v>10</v>
       </c>
       <c r="M58" t="n">
         <v>4.337113151265865</v>
@@ -3763,10 +3763,10 @@
         <v>6.447576870117802</v>
       </c>
       <c r="P58" t="n">
-        <v>35.94223900819448</v>
+        <v>59.81949296401085</v>
       </c>
       <c r="Q58" t="n">
-        <v>23.47455934369996</v>
+        <v>48.33757120904782</v>
       </c>
     </row>
     <row r="59">
@@ -3781,34 +3781,34 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>6.111111111111111</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>6.252271839750766</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>5.97934472934473</v>
+        <v>7.938034188034188</v>
       </c>
       <c r="H59" t="n">
-        <v>5.107043459644616</v>
+        <v>8.63485075163177</v>
       </c>
       <c r="I59" t="n">
-        <v>7.551020408163265</v>
+        <v>10</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>5.258879569224397</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>7.045445533859917</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
@@ -3820,10 +3820,10 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>7.551020408163265</v>
+        <v>33.15655664497103</v>
       </c>
       <c r="Q59" t="n">
-        <v>16.08638818898935</v>
+        <v>33.08403634864112</v>
       </c>
     </row>
     <row r="60">
@@ -3844,7 +3844,7 @@
         <v>4.199999999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -3880,7 +3880,7 @@
         <v>50</v>
       </c>
       <c r="Q60" t="n">
-        <v>43.6</v>
+        <v>51.76666666666667</v>
       </c>
     </row>
     <row r="61">
@@ -3952,34 +3952,34 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>9.107079581532631</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>9.208164732019887</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>7.811910647965362</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>9.898324667549232</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>46.81731489704723</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>49.20816473201989</v>
       </c>
     </row>
     <row r="63">
@@ -4012,31 +4012,31 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>6.428314313389791</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>7.745025856313139</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
@@ -4048,10 +4048,10 @@
         <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>44.17334016970293</v>
       </c>
     </row>
     <row r="64">
@@ -4066,34 +4066,34 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>6.866666666666667</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>5.133333333333333</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>5.333333333333332</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
@@ -4105,10 +4105,10 @@
         <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q64" t="n">
-        <v>0</v>
+        <v>35.66666666666666</v>
       </c>
     </row>
     <row r="65">
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -4135,13 +4135,13 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>9.010233918128657</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
@@ -4162,10 +4162,10 @@
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>26.01023391812866</v>
       </c>
       <c r="Q65" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66">
@@ -4180,34 +4180,34 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>9.225544149521696</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>9.956519335415431</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>9.216388261705296</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>9.800808863952295</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>9.286277262581713</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>8.232426303736583</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>8.689639637336755</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>9.451542940797054</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
@@ -4219,10 +4219,10 @@
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>0</v>
+        <v>46.19579065663704</v>
       </c>
       <c r="Q66" t="n">
-        <v>0</v>
+        <v>37.66335609840978</v>
       </c>
     </row>
     <row r="67">
@@ -4240,31 +4240,31 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>5.999003377778702</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>7.079056280571519</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>5.80212038780777</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
@@ -4276,10 +4276,10 @@
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>35.80212038780777</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>33.07805965835022</v>
       </c>
     </row>
     <row r="68">
@@ -4294,31 +4294,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>9.733333333333333</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1.333333333333332</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>4.333333333333332</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -4333,10 +4333,10 @@
         <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>0</v>
+        <v>16.73333333333333</v>
       </c>
       <c r="Q68" t="n">
-        <v>0</v>
+        <v>33.46666666666667</v>
       </c>
     </row>
     <row r="69">
@@ -4351,16 +4351,16 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>9.229471854492321</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -4390,10 +4390,10 @@
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Q69" t="n">
-        <v>0</v>
+        <v>9.229471854492321</v>
       </c>
     </row>
     <row r="70">
@@ -4408,34 +4408,34 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>7.182758693942684</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>6.23309044743496</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>9.172992312085041</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>9.774780802203034</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>7.084283056926898</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>7.199965340324836</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>8.166273123345023</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>9.336320678823146</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
@@ -4447,10 +4447,10 @@
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>0</v>
+        <v>40.80332777001756</v>
       </c>
       <c r="Q70" t="n">
-        <v>0</v>
+        <v>43.34713668506806</v>
       </c>
     </row>
     <row r="71">
@@ -4471,28 +4471,28 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>9.00235000367188</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>7.554986788991854</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>6.118397641197701</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>8.871102741159238</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>6.145475372279496</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>6.429866778266025</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
@@ -4504,10 +4504,10 @@
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>20.13032893953737</v>
       </c>
       <c r="Q71" t="n">
-        <v>0</v>
+        <v>23.99185038602882</v>
       </c>
     </row>
     <row r="72">
@@ -4522,13 +4522,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -4537,19 +4537,19 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
@@ -4561,10 +4561,10 @@
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>0</v>
+        <v>27.4</v>
       </c>
       <c r="Q72" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73">
@@ -4579,13 +4579,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>9.708054277561004</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -4594,10 +4594,10 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>8.970526315789472</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
@@ -4618,10 +4618,10 @@
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>0</v>
+        <v>16.708054277561</v>
       </c>
       <c r="Q73" t="n">
-        <v>0</v>
+        <v>28.97052631578947</v>
       </c>
     </row>
     <row r="74">
@@ -4636,34 +4636,34 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>9.152947078859114</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>7.634770417203429</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>7.943120135055311</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>9.967387634462355</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>8.777250456252737</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>8.04958279881704</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>8.428120838475408</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
@@ -4675,10 +4675,10 @@
         <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>0</v>
+        <v>45.63065071615156</v>
       </c>
       <c r="Q74" t="n">
-        <v>0</v>
+        <v>44.32252864297384</v>
       </c>
     </row>
     <row r="75">
@@ -4696,31 +4696,31 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>5.65599580162687</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>8.037466320980123</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>6.360117179326219</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>5.992305813385443</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>9.289600334798076</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
@@ -4732,10 +4732,10 @@
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>0</v>
+        <v>35.28190614818352</v>
       </c>
       <c r="Q75" t="n">
-        <v>0</v>
+        <v>30.05357930193321</v>
       </c>
     </row>
     <row r="76">
@@ -4750,34 +4750,34 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>8.533333333333333</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>7.600000000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>4.533333333333335</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>9.366666666666667</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>9.366666666666667</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
@@ -4789,10 +4789,10 @@
         <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>0</v>
+        <v>36.4</v>
       </c>
       <c r="Q76" t="n">
-        <v>0</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="77">
@@ -4810,22 +4810,22 @@
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>7.415664244057891</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>8.616842105263155</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>7.228435672514621</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
@@ -4846,10 +4846,10 @@
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>0</v>
+        <v>21.22843567251462</v>
       </c>
       <c r="Q77" t="n">
-        <v>0</v>
+        <v>16.03250634932105</v>
       </c>
     </row>
     <row r="78">
@@ -4864,34 +4864,34 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>8.881537344054129</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>-0.4626119780781837</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>8.787307576633133</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>9.371866531154023</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>7.933305570461463</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>-8.294822176616027</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>7.939684126510085</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>9.260687365321873</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>8.926527490569269</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -4903,10 +4903,10 @@
         <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>0</v>
+        <v>27.45292678451746</v>
       </c>
       <c r="Q78" t="n">
-        <v>0</v>
+        <v>34.89055506549231</v>
       </c>
     </row>
     <row r="79">
@@ -4921,31 +4921,31 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>5.096551191441702</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>5.126634230986033</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>8.294159544159545</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>5.535217298223079</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>5.395152002712106</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>5.508750508750508</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>20.49170319415381</v>
       </c>
       <c r="Q79" t="n">
-        <v>0</v>
+        <v>24.46476158211917</v>
       </c>
     </row>
     <row r="80">
@@ -4978,34 +4978,34 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>7.666666666666668</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>5.199999999999999</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>9.466666666666667</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>8.766666666666667</v>
       </c>
       <c r="M80" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>0</v>
+        <v>35.56666666666667</v>
       </c>
       <c r="Q80" t="n">
-        <v>0</v>
+        <v>32.33333333333334</v>
       </c>
     </row>
     <row r="81">
@@ -5035,7 +5035,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>8.528740317977988</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -5044,16 +5044,16 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>8.31118881118881</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J81" t="n">
         <v>0</v>
@@ -5074,10 +5074,10 @@
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>22.52874031797799</v>
       </c>
       <c r="Q81" t="n">
-        <v>0</v>
+        <v>8.31118881118881</v>
       </c>
     </row>
     <row r="82">
@@ -5092,34 +5092,34 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>9.704546944707554</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>8.091917225443572</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>1.789496662494619</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>0.4745901028461185</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>8.099230051167048</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>8.533358058520353</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>4.739465758314016</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
@@ -5131,10 +5131,10 @@
         <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>0</v>
+        <v>24.76686742403654</v>
       </c>
       <c r="Q82" t="n">
-        <v>0</v>
+        <v>36.66573737945674</v>
       </c>
     </row>
     <row r="83">
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
@@ -5170,10 +5170,10 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>6.425272395989181</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -5188,10 +5188,10 @@
         <v>0</v>
       </c>
       <c r="P83" t="n">
-        <v>0</v>
+        <v>6.425272395989181</v>
       </c>
       <c r="Q83" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84">
@@ -5206,22 +5206,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>8.866666666666667</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>7.666666666666668</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -5230,10 +5230,10 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>8.733333333333333</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
@@ -5245,10 +5245,10 @@
         <v>0</v>
       </c>
       <c r="P84" t="n">
-        <v>0</v>
+        <v>18.1</v>
       </c>
       <c r="Q84" t="n">
-        <v>0</v>
+        <v>45.26666666666667</v>
       </c>
     </row>
     <row r="85">
@@ -5266,10 +5266,10 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>8.624869317680844</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>7.449694207938604</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -5278,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>8.920000000000002</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>8.23355263157895</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
@@ -5302,10 +5302,10 @@
         <v>0</v>
       </c>
       <c r="P85" t="n">
-        <v>0</v>
+        <v>8.23355263157895</v>
       </c>
       <c r="Q85" t="n">
-        <v>0</v>
+        <v>24.99456352561945</v>
       </c>
     </row>
     <row r="86">
@@ -5320,31 +5320,31 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>9.920518102021607</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>-8.848894177440533</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>3.850440538618294</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>8.10811098604059</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>7.161124904630816</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>8.38628219936235</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
@@ -5359,10 +5359,10 @@
         <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>0</v>
+        <v>17.08164300665242</v>
       </c>
       <c r="Q86" t="n">
-        <v>0</v>
+        <v>21.4959395465807</v>
       </c>
     </row>
     <row r="87">
@@ -5389,19 +5389,19 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>5.294724432655467</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>9.581901489117985</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>6.087294190742466</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -5416,10 +5416,10 @@
         <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>0</v>
+        <v>9.581901489117985</v>
       </c>
       <c r="Q87" t="n">
-        <v>0</v>
+        <v>21.38201862339793</v>
       </c>
     </row>
     <row r="88">
@@ -5434,13 +5434,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>8.366666666666667</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -5449,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>9.366666666666667</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -5458,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -5473,10 +5473,10 @@
         <v>0</v>
       </c>
       <c r="P88" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q88" t="n">
-        <v>0</v>
+        <v>37.73333333333333</v>
       </c>
     </row>
     <row r="89">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>8.058054439420085</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
@@ -5530,10 +5530,10 @@
         <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q89" t="n">
-        <v>0</v>
+        <v>8.058054439420085</v>
       </c>
     </row>
     <row r="90">
@@ -5548,7 +5548,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>-4.829934222458974</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -5560,10 +5560,10 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>-10.60860430821362</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>-3.356514447164516</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -5587,10 +5587,10 @@
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>0</v>
+        <v>-4.829934222458974</v>
       </c>
       <c r="Q90" t="n">
-        <v>0</v>
+        <v>-13.96511875537813</v>
       </c>
     </row>
     <row r="91">

--- a/data/Daily_Scores.xlsx
+++ b/data/Daily_Scores.xlsx
@@ -1009,7 +1009,7 @@
         <v>2.780318956696957</v>
       </c>
       <c r="J10" t="n">
-        <v>3.917284622530796</v>
+        <v>10</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>3.300065904357135</v>
       </c>
       <c r="P10" t="n">
-        <v>31.39627149788934</v>
+        <v>37.47898687535854</v>
       </c>
       <c r="Q10" t="n">
         <v>2.588481455402818</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q11" t="n">
         <v>12.03428521665612</v>
@@ -1237,7 +1237,7 @@
         <v>8.833148478401338</v>
       </c>
       <c r="J14" t="n">
-        <v>5.474704453313128</v>
+        <v>8.774770357670263</v>
       </c>
       <c r="K14" t="n">
         <v>7.040016100702364</v>
@@ -1255,7 +1255,7 @@
         <v>5.535301305935096</v>
       </c>
       <c r="P14" t="n">
-        <v>40.76057928045513</v>
+        <v>44.06064518481227</v>
       </c>
       <c r="Q14" t="n">
         <v>23.55361697209905</v>
@@ -1294,7 +1294,7 @@
         <v>7.551020408163265</v>
       </c>
       <c r="J15" t="n">
-        <v>5.859106529209622</v>
+        <v>10</v>
       </c>
       <c r="K15" t="n">
         <v>5.880190535362949</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>13.41012693737289</v>
+        <v>17.55102040816326</v>
       </c>
       <c r="Q15" t="n">
         <v>10.88019053536295</v>
@@ -3754,7 +3754,7 @@
         <v>10</v>
       </c>
       <c r="M58" t="n">
-        <v>4.337113151265865</v>
+        <v>8.23871863737538</v>
       </c>
       <c r="N58" t="n">
         <v>7.627653524032286</v>
@@ -3766,7 +3766,7 @@
         <v>59.81949296401085</v>
       </c>
       <c r="Q58" t="n">
-        <v>48.33757120904782</v>
+        <v>52.23917669515733</v>
       </c>
     </row>
     <row r="59">
@@ -3811,7 +3811,7 @@
         <v>7.045445533859917</v>
       </c>
       <c r="M59" t="n">
-        <v>5</v>
+        <v>6.110288675055514</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -3823,7 +3823,7 @@
         <v>33.15655664497103</v>
       </c>
       <c r="Q59" t="n">
-        <v>33.08403634864112</v>
+        <v>34.19432502369663</v>
       </c>
     </row>
     <row r="60">
@@ -3982,7 +3982,7 @@
         <v>10</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>46.81731489704723</v>
       </c>
       <c r="Q62" t="n">
-        <v>49.20816473201989</v>
+        <v>59.20816473201989</v>
       </c>
     </row>
     <row r="63">
@@ -4039,7 +4039,7 @@
         <v>10</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -4051,7 +4051,7 @@
         <v>30</v>
       </c>
       <c r="Q63" t="n">
-        <v>44.17334016970293</v>
+        <v>54.17334016970293</v>
       </c>
     </row>
     <row r="64">
@@ -4096,7 +4096,7 @@
         <v>10</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -4108,7 +4108,7 @@
         <v>30</v>
       </c>
       <c r="Q64" t="n">
-        <v>35.66666666666666</v>
+        <v>45.66666666666666</v>
       </c>
     </row>
     <row r="65">
@@ -4153,7 +4153,7 @@
         <v>9.010233918128657</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -4165,7 +4165,7 @@
         <v>26.01023391812866</v>
       </c>
       <c r="Q65" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66">
@@ -4210,7 +4210,7 @@
         <v>9.451542940797054</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>6.09945646195537</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -4222,7 +4222,7 @@
         <v>46.19579065663704</v>
       </c>
       <c r="Q66" t="n">
-        <v>37.66335609840978</v>
+        <v>43.76281256036515</v>
       </c>
     </row>
     <row r="67">
@@ -4267,7 +4267,7 @@
         <v>5.80212038780777</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>35.80212038780777</v>
       </c>
       <c r="Q67" t="n">
-        <v>33.07805965835022</v>
+        <v>38.07805965835022</v>
       </c>
     </row>
     <row r="68">
@@ -4324,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -4336,7 +4336,7 @@
         <v>16.73333333333333</v>
       </c>
       <c r="Q68" t="n">
-        <v>33.46666666666667</v>
+        <v>43.46666666666667</v>
       </c>
     </row>
     <row r="69">
@@ -4381,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -4393,7 +4393,7 @@
         <v>24</v>
       </c>
       <c r="Q69" t="n">
-        <v>9.229471854492321</v>
+        <v>19.22947185449232</v>
       </c>
     </row>
     <row r="70">
@@ -4438,7 +4438,7 @@
         <v>9.336320678823146</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>7.455914005483769</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -4450,7 +4450,7 @@
         <v>40.80332777001756</v>
       </c>
       <c r="Q70" t="n">
-        <v>43.34713668506806</v>
+        <v>50.80305069055183</v>
       </c>
     </row>
     <row r="71">
@@ -4495,7 +4495,7 @@
         <v>6.429866778266025</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -4507,7 +4507,7 @@
         <v>20.13032893953737</v>
       </c>
       <c r="Q71" t="n">
-        <v>23.99185038602882</v>
+        <v>28.99185038602882</v>
       </c>
     </row>
     <row r="72">
@@ -4552,7 +4552,7 @@
         <v>7.399999999999999</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>4.133333333333333</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -4564,7 +4564,7 @@
         <v>27.4</v>
       </c>
       <c r="Q72" t="n">
-        <v>40</v>
+        <v>44.13333333333333</v>
       </c>
     </row>
     <row r="73">
@@ -4666,7 +4666,7 @@
         <v>10</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>8.667322304192769</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -4678,7 +4678,7 @@
         <v>45.63065071615156</v>
       </c>
       <c r="Q74" t="n">
-        <v>44.32252864297384</v>
+        <v>52.9898509471666</v>
       </c>
     </row>
     <row r="75">
@@ -4723,7 +4723,7 @@
         <v>9.289600334798076</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>6.850481125092524</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -4735,7 +4735,7 @@
         <v>35.28190614818352</v>
       </c>
       <c r="Q75" t="n">
-        <v>30.05357930193321</v>
+        <v>36.90406042702573</v>
       </c>
     </row>
     <row r="76">
@@ -4780,7 +4780,7 @@
         <v>9.366666666666667</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>7.866666666666667</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>36.4</v>
       </c>
       <c r="Q76" t="n">
-        <v>41.5</v>
+        <v>49.36666666666667</v>
       </c>
     </row>
     <row r="77">
@@ -4837,7 +4837,7 @@
         <v>7.228435672514621</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>7.270343336036768</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -4849,7 +4849,7 @@
         <v>21.22843567251462</v>
       </c>
       <c r="Q77" t="n">
-        <v>16.03250634932105</v>
+        <v>23.30284968535781</v>
       </c>
     </row>
     <row r="78">
@@ -4894,7 +4894,7 @@
         <v>8.926527490569269</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -4906,7 +4906,7 @@
         <v>27.45292678451746</v>
       </c>
       <c r="Q78" t="n">
-        <v>34.89055506549231</v>
+        <v>44.89055506549231</v>
       </c>
     </row>
     <row r="79">
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>20.49170319415381</v>
       </c>
       <c r="Q79" t="n">
-        <v>24.46476158211917</v>
+        <v>34.46476158211917</v>
       </c>
     </row>
     <row r="80">
@@ -5008,7 +5008,7 @@
         <v>8.766666666666667</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>7.666666666666668</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -5020,7 +5020,7 @@
         <v>35.56666666666667</v>
       </c>
       <c r="Q80" t="n">
-        <v>32.33333333333334</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81">
@@ -5065,7 +5065,7 @@
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>7.154481906306725</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -5077,7 +5077,7 @@
         <v>22.52874031797799</v>
       </c>
       <c r="Q81" t="n">
-        <v>8.31118881118881</v>
+        <v>15.46567071749553</v>
       </c>
     </row>
     <row r="82">
@@ -5122,7 +5122,7 @@
         <v>4.739465758314016</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>24.76686742403654</v>
       </c>
       <c r="Q82" t="n">
-        <v>36.66573737945674</v>
+        <v>46.66573737945674</v>
       </c>
     </row>
     <row r="83">
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -5191,7 +5191,7 @@
         <v>6.425272395989181</v>
       </c>
       <c r="Q83" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84">
@@ -5236,7 +5236,7 @@
         <v>10</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="N84" t="n">
         <v>0</v>
@@ -5248,7 +5248,7 @@
         <v>18.1</v>
       </c>
       <c r="Q84" t="n">
-        <v>45.26666666666667</v>
+        <v>46.06666666666666</v>
       </c>
     </row>
     <row r="85">
@@ -5323,10 +5323,10 @@
         <v>9.920518102021607</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.848894177440533</v>
+        <v>7.598682692677265</v>
       </c>
       <c r="E86" t="n">
-        <v>3.850440538618294</v>
+        <v>8.987939404117505</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -5344,13 +5344,13 @@
         <v>7.161124904630816</v>
       </c>
       <c r="K86" t="n">
-        <v>8.38628219936235</v>
+        <v>9.982149251540919</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N86" t="n">
         <v>0</v>
@@ -5362,7 +5362,7 @@
         <v>17.08164300665242</v>
       </c>
       <c r="Q86" t="n">
-        <v>21.4959395465807</v>
+        <v>54.67688233437627</v>
       </c>
     </row>
     <row r="87">
@@ -5383,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>6.064845413820959</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -5401,13 +5401,13 @@
         <v>9.581901489117985</v>
       </c>
       <c r="K87" t="n">
-        <v>6.087294190742466</v>
+        <v>8.158330744537642</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N87" t="n">
         <v>0</v>
@@ -5419,7 +5419,7 @@
         <v>9.581901489117985</v>
       </c>
       <c r="Q87" t="n">
-        <v>21.38201862339793</v>
+        <v>39.51790059101407</v>
       </c>
     </row>
     <row r="88">
@@ -5464,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>3.066666666666666</v>
       </c>
       <c r="N88" t="n">
         <v>0</v>
@@ -5476,7 +5476,7 @@
         <v>10</v>
       </c>
       <c r="Q88" t="n">
-        <v>37.73333333333333</v>
+        <v>40.8</v>
       </c>
     </row>
     <row r="89">
@@ -5548,37 +5548,37 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>-4.829934222458974</v>
+        <v>4.538012728600544</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>3.520064119587888</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>-0.8096906366186987</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>-10.60860430821362</v>
+        <v>-8.294822176616027</v>
       </c>
       <c r="H90" t="n">
-        <v>-3.356514447164516</v>
+        <v>1.040745953112029</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>-3.780424073077235</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>2.847370204046599</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>1.77128061725175</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
@@ -5587,10 +5587,10 @@
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>-4.829934222458974</v>
+        <v>0.7575886555233091</v>
       </c>
       <c r="Q90" t="n">
-        <v>-13.96511875537813</v>
+        <v>0.0749480807635412</v>
       </c>
     </row>
     <row r="91">
@@ -5635,7 +5635,7 @@
         <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="Q91" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
@@ -5665,10 +5665,10 @@
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -5677,7 +5677,7 @@
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
@@ -5704,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="Q92" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93">
@@ -5722,7 +5722,7 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>8.398143366376539</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
@@ -5743,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>8.225961538461538</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -5761,7 +5761,7 @@
         <v>0</v>
       </c>
       <c r="Q93" t="n">
-        <v>0</v>
+        <v>16.62410490483808</v>
       </c>
     </row>
   </sheetData>

--- a/data/Daily_Scores.xlsx
+++ b/data/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q93"/>
+  <dimension ref="A1:Q97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5119,7 +5119,7 @@
         <v>10</v>
       </c>
       <c r="L82" t="n">
-        <v>4.739465758314016</v>
+        <v>8.495208134628575</v>
       </c>
       <c r="M82" t="n">
         <v>10</v>
@@ -5131,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>24.76686742403654</v>
+        <v>28.5226098003511</v>
       </c>
       <c r="Q82" t="n">
         <v>46.66573737945674</v>
@@ -5176,7 +5176,7 @@
         <v>10</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>5.043312543312544</v>
       </c>
       <c r="M83" t="n">
         <v>10</v>
@@ -5188,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="P83" t="n">
-        <v>6.425272395989181</v>
+        <v>11.46858493930172</v>
       </c>
       <c r="Q83" t="n">
         <v>30</v>
@@ -5347,7 +5347,7 @@
         <v>9.982149251540919</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>8.239575764612583</v>
       </c>
       <c r="M86" t="n">
         <v>10</v>
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>17.08164300665242</v>
+        <v>25.321218771265</v>
       </c>
       <c r="Q86" t="n">
         <v>54.67688233437627</v>
@@ -5461,7 +5461,7 @@
         <v>10</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M88" t="n">
         <v>3.066666666666666</v>
@@ -5473,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="P88" t="n">
-        <v>10</v>
+        <v>18.7</v>
       </c>
       <c r="Q88" t="n">
         <v>40.8</v>
@@ -5548,13 +5548,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4.538012728600544</v>
+        <v>8.242045077119464</v>
       </c>
       <c r="D90" t="n">
-        <v>3.520064119587888</v>
+        <v>9.532874049622114</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.8096906366186987</v>
+        <v>10</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -5563,22 +5563,22 @@
         <v>-8.294822176616027</v>
       </c>
       <c r="H90" t="n">
-        <v>1.040745953112029</v>
+        <v>10</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>-3.780424073077235</v>
+        <v>8.071134930347315</v>
       </c>
       <c r="K90" t="n">
-        <v>2.847370204046599</v>
+        <v>9.819395546555249</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M90" t="n">
-        <v>1.77128061725175</v>
+        <v>9.08390730331792</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
@@ -5587,10 +5587,10 @@
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>0.7575886555233091</v>
+        <v>26.31318000746678</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.0749480807635412</v>
+        <v>40.14135472287926</v>
       </c>
     </row>
     <row r="91">
@@ -5608,10 +5608,10 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>7.553626149131768</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -5620,19 +5620,19 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>6.601764333500597</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
@@ -5644,10 +5644,10 @@
         <v>0</v>
       </c>
       <c r="P91" t="n">
-        <v>0</v>
+        <v>16.6017643335006</v>
       </c>
       <c r="Q91" t="n">
-        <v>5</v>
+        <v>42.55362614913177</v>
       </c>
     </row>
     <row r="92">
@@ -5689,10 +5689,10 @@
         <v>10</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
@@ -5701,10 +5701,10 @@
         <v>0</v>
       </c>
       <c r="P92" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q92" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93">
@@ -5746,10 +5746,10 @@
         <v>8.225961538461538</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
@@ -5758,10 +5758,238 @@
         <v>0</v>
       </c>
       <c r="P93" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q93" t="n">
-        <v>16.62410490483808</v>
+        <v>26.62410490483808</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2024-11-24</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>3.050790039716893</v>
+      </c>
+      <c r="D94" t="n">
+        <v>8.34677780922884</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>8.124315058157913</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>10</v>
+      </c>
+      <c r="K94" t="n">
+        <v>7.963662243002353</v>
+      </c>
+      <c r="L94" t="n">
+        <v>10</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5.710758674254921</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>23.05079003971689</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>30.14551378464403</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2024-11-24</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>9.523656140223277</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>5.392492685363591</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>10</v>
+      </c>
+      <c r="K95" t="n">
+        <v>6.915708812260537</v>
+      </c>
+      <c r="L95" t="n">
+        <v>7.336611564483505</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>17.3366115644835</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>26.83185763784741</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2024-11-24</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>10</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>10</v>
+      </c>
+      <c r="L96" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="M96" t="n">
+        <v>10</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
+      </c>
+      <c r="P96" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2024-11-24</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>10</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>10</v>
+      </c>
+      <c r="L97" t="n">
+        <v>7</v>
+      </c>
+      <c r="M97" t="n">
+        <v>10</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/Daily_Scores.xlsx
+++ b/data/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q97"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5674,7 +5674,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H92" t="n">
         <v>9.333333333333334</v>
@@ -5704,7 +5704,7 @@
         <v>10</v>
       </c>
       <c r="Q92" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93">
@@ -5731,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5761,7 +5761,7 @@
         <v>10</v>
       </c>
       <c r="Q93" t="n">
-        <v>26.62410490483808</v>
+        <v>36.62410490483808</v>
       </c>
     </row>
     <row r="94">
@@ -5779,10 +5779,10 @@
         <v>3.050790039716893</v>
       </c>
       <c r="D94" t="n">
-        <v>8.34677780922884</v>
+        <v>9.766187905537263</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>8.124315058157913</v>
+        <v>8.976683255620076</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -5800,13 +5800,13 @@
         <v>10</v>
       </c>
       <c r="K94" t="n">
-        <v>7.963662243002353</v>
+        <v>8.234944660707749</v>
       </c>
       <c r="L94" t="n">
         <v>10</v>
       </c>
       <c r="M94" t="n">
-        <v>5.710758674254921</v>
+        <v>6.535112045842943</v>
       </c>
       <c r="N94" t="n">
         <v>0</v>
@@ -5818,7 +5818,7 @@
         <v>23.05079003971689</v>
       </c>
       <c r="Q94" t="n">
-        <v>30.14551378464403</v>
+        <v>43.51292786770803</v>
       </c>
     </row>
     <row r="95">
@@ -5836,10 +5836,10 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>7.745927517424228</v>
       </c>
       <c r="E95" t="n">
-        <v>9.523656140223277</v>
+        <v>10</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -5848,7 +5848,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>5.392492685363591</v>
+        <v>9.67423107114822</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -5875,7 +5875,7 @@
         <v>17.3366115644835</v>
       </c>
       <c r="Q95" t="n">
-        <v>26.83185763784741</v>
+        <v>39.33586740083298</v>
       </c>
     </row>
     <row r="96">
@@ -5905,7 +5905,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -5932,7 +5932,7 @@
         <v>19.2</v>
       </c>
       <c r="Q96" t="n">
-        <v>28.8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97">
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>9.273684210526314</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -5989,7 +5989,235 @@
         <v>17</v>
       </c>
       <c r="Q97" t="n">
-        <v>20</v>
+        <v>29.27368421052631</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>9.215624136256851</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2.132210258349824</v>
+      </c>
+      <c r="E98" t="n">
+        <v>10</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>9.677569691434259</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>10</v>
+      </c>
+      <c r="K98" t="n">
+        <v>8.517204156239197</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>7.272119953962245</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0</v>
+      </c>
+      <c r="P98" t="n">
+        <v>19.21562413625685</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>37.59910405998553</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>6.515151515151516</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>10</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>8.731603543279626</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>10</v>
+      </c>
+      <c r="K99" t="n">
+        <v>7.640571606088848</v>
+      </c>
+      <c r="L99" t="n">
+        <v>7.12064573731065</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0</v>
+      </c>
+      <c r="P99" t="n">
+        <v>23.63579725246217</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>31.37217514936847</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>8.933333333333334</v>
+      </c>
+      <c r="E100" t="n">
+        <v>10</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>10</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>46.33333333333334</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>8.700444634782279</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>8.08173076923077</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>7.811030008110301</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>24.59320541212335</v>
       </c>
     </row>
   </sheetData>

--- a/data/Daily_Scores.xlsx
+++ b/data/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q101"/>
+  <dimension ref="A1:Q109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3760,10 +3760,10 @@
         <v>7.627653524032286</v>
       </c>
       <c r="O58" t="n">
-        <v>6.447576870117802</v>
+        <v>8.305237417536544</v>
       </c>
       <c r="P58" t="n">
-        <v>59.81949296401085</v>
+        <v>61.67715351142959</v>
       </c>
       <c r="Q58" t="n">
         <v>52.23917669515733</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P62" t="n">
-        <v>46.81731489704723</v>
+        <v>56.81731489704723</v>
       </c>
       <c r="Q62" t="n">
         <v>59.20816473201989</v>
@@ -4045,10 +4045,10 @@
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P63" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q63" t="n">
         <v>54.17334016970293</v>
@@ -4102,10 +4102,10 @@
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="P64" t="n">
-        <v>30</v>
+        <v>39.9</v>
       </c>
       <c r="Q64" t="n">
         <v>45.66666666666666</v>
@@ -4216,10 +4216,10 @@
         <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>0</v>
+        <v>4.478232180898258</v>
       </c>
       <c r="P66" t="n">
-        <v>46.19579065663704</v>
+        <v>50.6740228375353</v>
       </c>
       <c r="Q66" t="n">
         <v>43.76281256036515</v>
@@ -4330,10 +4330,10 @@
         <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P68" t="n">
-        <v>16.73333333333333</v>
+        <v>26.73333333333333</v>
       </c>
       <c r="Q68" t="n">
         <v>43.46666666666667</v>
@@ -4387,10 +4387,10 @@
         <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>8.332294201907883</v>
       </c>
       <c r="P69" t="n">
-        <v>24</v>
+        <v>32.33229420190789</v>
       </c>
       <c r="Q69" t="n">
         <v>19.22947185449232</v>
@@ -4444,10 +4444,10 @@
         <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P70" t="n">
-        <v>40.80332777001756</v>
+        <v>50.80332777001756</v>
       </c>
       <c r="Q70" t="n">
         <v>50.80305069055183</v>
@@ -4501,10 +4501,10 @@
         <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P71" t="n">
-        <v>20.13032893953737</v>
+        <v>30.13032893953737</v>
       </c>
       <c r="Q71" t="n">
         <v>28.99185038602882</v>
@@ -4558,10 +4558,10 @@
         <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="P72" t="n">
-        <v>27.4</v>
+        <v>36.5</v>
       </c>
       <c r="Q72" t="n">
         <v>44.13333333333333</v>
@@ -4672,10 +4672,10 @@
         <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
+        <v>8.319074046703179</v>
       </c>
       <c r="P74" t="n">
-        <v>45.63065071615156</v>
+        <v>53.94972476285474</v>
       </c>
       <c r="Q74" t="n">
         <v>52.9898509471666</v>
@@ -4729,10 +4729,10 @@
         <v>0</v>
       </c>
       <c r="O75" t="n">
-        <v>0</v>
+        <v>5.449609185861521</v>
       </c>
       <c r="P75" t="n">
-        <v>35.28190614818352</v>
+        <v>40.73151533404504</v>
       </c>
       <c r="Q75" t="n">
         <v>36.90406042702573</v>
@@ -4786,10 +4786,10 @@
         <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>0</v>
+        <v>9.533333333333333</v>
       </c>
       <c r="P76" t="n">
-        <v>36.4</v>
+        <v>45.93333333333333</v>
       </c>
       <c r="Q76" t="n">
         <v>49.36666666666667</v>
@@ -4900,10 +4900,10 @@
         <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>0</v>
+        <v>9.08390730331792</v>
       </c>
       <c r="P78" t="n">
-        <v>27.45292678451746</v>
+        <v>36.53683408783538</v>
       </c>
       <c r="Q78" t="n">
         <v>44.89055506549231</v>
@@ -4957,10 +4957,10 @@
         <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>0</v>
+        <v>5.034585321989348</v>
       </c>
       <c r="P79" t="n">
-        <v>20.49170319415381</v>
+        <v>25.52628851614315</v>
       </c>
       <c r="Q79" t="n">
         <v>34.46476158211917</v>
@@ -5014,10 +5014,10 @@
         <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P80" t="n">
-        <v>35.56666666666667</v>
+        <v>45.56666666666667</v>
       </c>
       <c r="Q80" t="n">
         <v>40</v>
@@ -5071,10 +5071,10 @@
         <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>0</v>
+        <v>7.39185123585526</v>
       </c>
       <c r="P81" t="n">
-        <v>22.52874031797799</v>
+        <v>29.92059155383325</v>
       </c>
       <c r="Q81" t="n">
         <v>15.46567071749553</v>
@@ -5128,10 +5128,10 @@
         <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>0</v>
+        <v>7.915965337952482</v>
       </c>
       <c r="P82" t="n">
-        <v>28.5226098003511</v>
+        <v>36.43857513830358</v>
       </c>
       <c r="Q82" t="n">
         <v>46.66573737945674</v>
@@ -5185,10 +5185,10 @@
         <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>0</v>
+        <v>5.034585321989348</v>
       </c>
       <c r="P83" t="n">
-        <v>11.46858493930172</v>
+        <v>16.50317026129107</v>
       </c>
       <c r="Q83" t="n">
         <v>30</v>
@@ -5242,10 +5242,10 @@
         <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P84" t="n">
-        <v>18.1</v>
+        <v>28.1</v>
       </c>
       <c r="Q84" t="n">
         <v>46.06666666666666</v>
@@ -5299,10 +5299,10 @@
         <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>0</v>
+        <v>8.489034696249984</v>
       </c>
       <c r="P85" t="n">
-        <v>8.23355263157895</v>
+        <v>16.72258732782893</v>
       </c>
       <c r="Q85" t="n">
         <v>24.99456352561945</v>
@@ -5356,10 +5356,10 @@
         <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P86" t="n">
-        <v>25.321218771265</v>
+        <v>35.321218771265</v>
       </c>
       <c r="Q86" t="n">
         <v>54.67688233437627</v>
@@ -5413,10 +5413,10 @@
         <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>0</v>
+        <v>7.801411081137166</v>
       </c>
       <c r="P87" t="n">
-        <v>9.581901489117985</v>
+        <v>17.38331257025515</v>
       </c>
       <c r="Q87" t="n">
         <v>39.51790059101407</v>
@@ -5470,10 +5470,10 @@
         <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P88" t="n">
-        <v>18.7</v>
+        <v>28.7</v>
       </c>
       <c r="Q88" t="n">
         <v>40.8</v>
@@ -5527,10 +5527,10 @@
         <v>0</v>
       </c>
       <c r="O89" t="n">
-        <v>0</v>
+        <v>7.496344898749995</v>
       </c>
       <c r="P89" t="n">
-        <v>10</v>
+        <v>17.49634489875</v>
       </c>
       <c r="Q89" t="n">
         <v>8.058054439420085</v>
@@ -5584,10 +5584,10 @@
         <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>0</v>
+        <v>9.372985566366298</v>
       </c>
       <c r="P90" t="n">
-        <v>26.31318000746678</v>
+        <v>35.68616557383307</v>
       </c>
       <c r="Q90" t="n">
         <v>40.14135472287926</v>
@@ -5641,10 +5641,10 @@
         <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>0</v>
+        <v>5.714285714285714</v>
       </c>
       <c r="P91" t="n">
-        <v>16.6017643335006</v>
+        <v>22.31605004778631</v>
       </c>
       <c r="Q91" t="n">
         <v>42.55362614913177</v>
@@ -5698,10 +5698,10 @@
         <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>0</v>
+        <v>9.466666666666667</v>
       </c>
       <c r="P92" t="n">
-        <v>10</v>
+        <v>19.46666666666667</v>
       </c>
       <c r="Q92" t="n">
         <v>58</v>
@@ -5812,10 +5812,10 @@
         <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>0</v>
+        <v>6.624236186177305</v>
       </c>
       <c r="P94" t="n">
-        <v>23.05079003971689</v>
+        <v>29.6750262258942</v>
       </c>
       <c r="Q94" t="n">
         <v>43.51292786770803</v>
@@ -5860,7 +5860,7 @@
         <v>6.915708812260537</v>
       </c>
       <c r="L95" t="n">
-        <v>7.336611564483505</v>
+        <v>9.173611291515639</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
@@ -5872,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="P95" t="n">
-        <v>17.3366115644835</v>
+        <v>19.17361129151564</v>
       </c>
       <c r="Q95" t="n">
         <v>39.33586740083298</v>
@@ -6004,10 +6004,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>9.215624136256851</v>
+        <v>9.240369112483753</v>
       </c>
       <c r="D98" t="n">
-        <v>2.132210258349824</v>
+        <v>6.8467486279341</v>
       </c>
       <c r="E98" t="n">
         <v>10</v>
@@ -6019,7 +6019,7 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>9.677569691434259</v>
+        <v>9.737556806027074</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -6028,25 +6028,25 @@
         <v>10</v>
       </c>
       <c r="K98" t="n">
-        <v>8.517204156239197</v>
+        <v>10</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>8.152754693501771</v>
       </c>
       <c r="M98" t="n">
-        <v>7.272119953962245</v>
+        <v>7.763211640958832</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>0</v>
+        <v>9.987458662742062</v>
       </c>
       <c r="P98" t="n">
-        <v>19.21562413625685</v>
+        <v>37.38058246872759</v>
       </c>
       <c r="Q98" t="n">
-        <v>37.59910405998553</v>
+        <v>44.34751707492001</v>
       </c>
     </row>
     <row r="99">
@@ -6085,10 +6085,10 @@
         <v>10</v>
       </c>
       <c r="K99" t="n">
-        <v>7.640571606088848</v>
+        <v>9.504504504504505</v>
       </c>
       <c r="L99" t="n">
-        <v>7.12064573731065</v>
+        <v>0</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
@@ -6097,13 +6097,13 @@
         <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>0</v>
+        <v>8.35477623296673</v>
       </c>
       <c r="P99" t="n">
-        <v>23.63579725246217</v>
+        <v>24.86992774811824</v>
       </c>
       <c r="Q99" t="n">
-        <v>31.37217514936847</v>
+        <v>33.23610804778413</v>
       </c>
     </row>
     <row r="100">
@@ -6145,7 +6145,7 @@
         <v>10</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M100" t="n">
         <v>8.4</v>
@@ -6157,7 +6157,7 @@
         <v>0</v>
       </c>
       <c r="P100" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q100" t="n">
         <v>46.33333333333334</v>
@@ -6202,7 +6202,7 @@
         <v>8.08173076923077</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>9.375730994152047</v>
       </c>
       <c r="M101" t="n">
         <v>7.811030008110301</v>
@@ -6214,10 +6214,466 @@
         <v>0</v>
       </c>
       <c r="P101" t="n">
-        <v>0</v>
+        <v>9.375730994152047</v>
       </c>
       <c r="Q101" t="n">
         <v>24.59320541212335</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2024-11-26</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>9.665706509013532</v>
+      </c>
+      <c r="D102" t="n">
+        <v>8.307887093516937</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.6931172275014791</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>7.228827871392642</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>8.918844904883636</v>
+      </c>
+      <c r="K102" t="n">
+        <v>9.509454118266968</v>
+      </c>
+      <c r="L102" t="n">
+        <v>9.046430447682672</v>
+      </c>
+      <c r="M102" t="n">
+        <v>8.059547230117545</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>9.608655582566671</v>
+      </c>
+      <c r="P102" t="n">
+        <v>37.23963744414651</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>33.79883354079557</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2024-11-26</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>7.020202020202021</v>
+      </c>
+      <c r="D103" t="n">
+        <v>5.085120871637725</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>5.662621189928158</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>10</v>
+      </c>
+      <c r="K103" t="n">
+        <v>5.217384476697811</v>
+      </c>
+      <c r="L103" t="n">
+        <v>8.313105949640789</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>6.279656913605866</v>
+      </c>
+      <c r="P103" t="n">
+        <v>31.61296488344868</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>20.9651265382637</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2024-11-26</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>10</v>
+      </c>
+      <c r="D104" t="n">
+        <v>6</v>
+      </c>
+      <c r="E104" t="n">
+        <v>6.466666666666665</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>9.433333333333334</v>
+      </c>
+      <c r="L104" t="n">
+        <v>5.933333333333334</v>
+      </c>
+      <c r="M104" t="n">
+        <v>3.800000000000001</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="n">
+        <v>9.533333333333333</v>
+      </c>
+      <c r="P104" t="n">
+        <v>25.46666666666667</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>35.7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2024-11-26</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>8.747131791974841</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>8.920000000000002</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P105" t="n">
+        <v>8.747131791974841</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>8.920000000000002</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>8.772722696117773</v>
+      </c>
+      <c r="D106" t="n">
+        <v>8.085490625659173</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>8.916921492553294</v>
+      </c>
+      <c r="H106" t="n">
+        <v>9.260213191512038</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>7.656413366768122</v>
+      </c>
+      <c r="K106" t="n">
+        <v>8.415027970174181</v>
+      </c>
+      <c r="L106" t="n">
+        <v>9.149148767802274</v>
+      </c>
+      <c r="M106" t="n">
+        <v>10</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="n">
+        <v>9.951666838212956</v>
+      </c>
+      <c r="P106" t="n">
+        <v>35.52995166890113</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>44.67765327989868</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>5.590971480860149</v>
+      </c>
+      <c r="H107" t="n">
+        <v>5.786291810014261</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>10</v>
+      </c>
+      <c r="L107" t="n">
+        <v>5.45337239310874</v>
+      </c>
+      <c r="M107" t="n">
+        <v>10</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>7.455557861243689</v>
+      </c>
+      <c r="P107" t="n">
+        <v>12.90893025435243</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>31.37726329087441</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>10</v>
+      </c>
+      <c r="D108" t="n">
+        <v>9.833333333333334</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>10</v>
+      </c>
+      <c r="H108" t="n">
+        <v>9.433333333333334</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>8.033333333333333</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" t="n">
+        <v>10</v>
+      </c>
+      <c r="P108" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>37.3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>10</v>
+      </c>
+      <c r="D109" t="n">
+        <v>9.720711415651646</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>9.088189588189589</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>7.38620476576681</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" t="n">
+        <v>8.280047370460514</v>
+      </c>
+      <c r="P109" t="n">
+        <v>18.28004737046052</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>26.19510576960804</v>
       </c>
     </row>
   </sheetData>

--- a/data/Daily_Scores.xlsx
+++ b/data/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q109"/>
+  <dimension ref="A1:Q117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6463,7 +6463,7 @@
         <v>8.772722696117773</v>
       </c>
       <c r="D106" t="n">
-        <v>8.085490625659173</v>
+        <v>8.218690085247859</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -6484,10 +6484,10 @@
         <v>7.656413366768122</v>
       </c>
       <c r="K106" t="n">
-        <v>8.415027970174181</v>
+        <v>8.831569815800643</v>
       </c>
       <c r="L106" t="n">
-        <v>9.149148767802274</v>
+        <v>9.65110660985189</v>
       </c>
       <c r="M106" t="n">
         <v>10</v>
@@ -6496,13 +6496,13 @@
         <v>0</v>
       </c>
       <c r="O106" t="n">
-        <v>9.951666838212956</v>
+        <v>9.972767300424392</v>
       </c>
       <c r="P106" t="n">
-        <v>35.52995166890113</v>
+        <v>36.05300997316218</v>
       </c>
       <c r="Q106" t="n">
-        <v>44.67765327989868</v>
+        <v>45.22739458511384</v>
       </c>
     </row>
     <row r="107">
@@ -6544,7 +6544,7 @@
         <v>10</v>
       </c>
       <c r="L107" t="n">
-        <v>5.45337239310874</v>
+        <v>5.80212038780777</v>
       </c>
       <c r="M107" t="n">
         <v>10</v>
@@ -6556,7 +6556,7 @@
         <v>7.455557861243689</v>
       </c>
       <c r="P107" t="n">
-        <v>12.90893025435243</v>
+        <v>13.25767824905146</v>
       </c>
       <c r="Q107" t="n">
         <v>31.37726329087441</v>
@@ -6674,6 +6674,462 @@
       </c>
       <c r="Q109" t="n">
         <v>26.19510576960804</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2024-11-28</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>9.517026902837271</v>
+      </c>
+      <c r="D110" t="n">
+        <v>6.251248689891535</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>9.152138541407384</v>
+      </c>
+      <c r="H110" t="n">
+        <v>8.243544947014787</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>8.715353089784399</v>
+      </c>
+      <c r="K110" t="n">
+        <v>8.976793877880098</v>
+      </c>
+      <c r="L110" t="n">
+        <v>8.565899571905055</v>
+      </c>
+      <c r="M110" t="n">
+        <v>8.147913384448724</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" t="n">
+        <v>3.268868649179355</v>
+      </c>
+      <c r="P110" t="n">
+        <v>30.06714821370608</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>40.77163944064253</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2024-11-28</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>7.581908831908832</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>7.044444444444444</v>
+      </c>
+      <c r="K111" t="n">
+        <v>5.508750508750508</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>5</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0</v>
+      </c>
+      <c r="P111" t="n">
+        <v>7.044444444444444</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>18.09065934065934</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2024-11-28</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>10</v>
+      </c>
+      <c r="D112" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>10</v>
+      </c>
+      <c r="H112" t="n">
+        <v>9.033333333333333</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>10</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>5.266666666666666</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" t="n">
+        <v>4.600000000000001</v>
+      </c>
+      <c r="P112" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>43.7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2024-11-28</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>10</v>
+      </c>
+      <c r="D113" t="n">
+        <v>9.229471854492321</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>9.428127428127425</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0</v>
+      </c>
+      <c r="P113" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>18.65759928261975</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2024-11-29</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>-11.16267630903812</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-4.112996652504186</v>
+      </c>
+      <c r="H114" t="n">
+        <v>-0.1669388850804464</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>-6.458722396355212</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.9980251918540667</v>
+      </c>
+      <c r="M114" t="n">
+        <v>-11.35347578182325</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" t="n">
+        <v>3.141079570999812</v>
+      </c>
+      <c r="P114" t="n">
+        <v>-13.48229394253946</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>-15.63341131940788</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2024-11-29</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>5</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2024-11-29</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>10</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>3.133333333333333</v>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>3.800000000000001</v>
+      </c>
+      <c r="M116" t="n">
+        <v>10</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" t="n">
+        <v>10</v>
+      </c>
+      <c r="P116" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>23.13333333333333</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2024-11-29</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>8.485062023178616</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>8.465263157894737</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>10</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117" t="n">
+        <v>7.757579055986836</v>
+      </c>
+      <c r="P117" t="n">
+        <v>16.24264107916545</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>18.46526315789474</v>
       </c>
     </row>
   </sheetData>

--- a/data/Daily_Scores.xlsx
+++ b/data/Daily_Scores.xlsx
@@ -6691,7 +6691,7 @@
         <v>9.517026902837271</v>
       </c>
       <c r="D110" t="n">
-        <v>6.251248689891535</v>
+        <v>10</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -6712,7 +6712,7 @@
         <v>8.715353089784399</v>
       </c>
       <c r="K110" t="n">
-        <v>8.976793877880098</v>
+        <v>9.991086558103163</v>
       </c>
       <c r="L110" t="n">
         <v>8.565899571905055</v>
@@ -6730,7 +6730,7 @@
         <v>30.06714821370608</v>
       </c>
       <c r="Q110" t="n">
-        <v>40.77163944064253</v>
+        <v>45.53468343097406</v>
       </c>
     </row>
     <row r="111">
@@ -6748,7 +6748,7 @@
         <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>9.074340829688456</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -6769,7 +6769,7 @@
         <v>7.044444444444444</v>
       </c>
       <c r="K111" t="n">
-        <v>5.508750508750508</v>
+        <v>7.640571606088848</v>
       </c>
       <c r="L111" t="n">
         <v>0</v>
@@ -6787,7 +6787,7 @@
         <v>7.044444444444444</v>
       </c>
       <c r="Q111" t="n">
-        <v>18.09065934065934</v>
+        <v>29.29682126768613</v>
       </c>
     </row>
     <row r="112">
@@ -6916,10 +6916,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>-11.16267630903812</v>
+        <v>10</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>9.880056006528793</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
@@ -6928,37 +6928,37 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>-4.112996652504186</v>
+        <v>10</v>
       </c>
       <c r="H114" t="n">
-        <v>-0.1669388850804464</v>
+        <v>7.921945098894121</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>-6.458722396355212</v>
+        <v>6.490304903193256</v>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L114" t="n">
         <v>0.9980251918540667</v>
       </c>
       <c r="M114" t="n">
-        <v>-11.35347578182325</v>
+        <v>9.515892079774515</v>
       </c>
       <c r="N114" t="n">
         <v>0</v>
       </c>
       <c r="O114" t="n">
-        <v>3.141079570999812</v>
+        <v>10</v>
       </c>
       <c r="P114" t="n">
-        <v>-13.48229394253946</v>
+        <v>27.48833009504732</v>
       </c>
       <c r="Q114" t="n">
-        <v>-15.63341131940788</v>
+        <v>47.31789318519743</v>
       </c>
     </row>
     <row r="115">
@@ -6973,10 +6973,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
@@ -6985,7 +6985,7 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>8.552183417213158</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -6997,25 +6997,25 @@
         <v>0</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>7.897378174494714</v>
       </c>
       <c r="L115" t="n">
         <v>0</v>
       </c>
       <c r="M115" t="n">
-        <v>5</v>
+        <v>5.863557858376511</v>
       </c>
       <c r="N115" t="n">
         <v>0</v>
       </c>
       <c r="O115" t="n">
-        <v>0</v>
+        <v>6.906506792454215</v>
       </c>
       <c r="P115" t="n">
-        <v>0</v>
+        <v>16.90650679245422</v>
       </c>
       <c r="Q115" t="n">
-        <v>5</v>
+        <v>32.31311945008438</v>
       </c>
     </row>
     <row r="116">
@@ -7033,7 +7033,7 @@
         <v>10</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>6.266666666666666</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
@@ -7042,7 +7042,7 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>3.133333333333333</v>
+        <v>10</v>
       </c>
       <c r="H116" t="n">
         <v>10</v>
@@ -7054,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L116" t="n">
         <v>3.800000000000001</v>
@@ -7072,7 +7072,7 @@
         <v>23.8</v>
       </c>
       <c r="Q116" t="n">
-        <v>23.13333333333333</v>
+        <v>46.26666666666667</v>
       </c>
     </row>
     <row r="117">
@@ -7099,10 +7099,10 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H117" t="n">
-        <v>8.465263157894737</v>
+        <v>10</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>7.216346153846157</v>
       </c>
       <c r="L117" t="n">
         <v>0</v>
@@ -7129,7 +7129,7 @@
         <v>16.24264107916545</v>
       </c>
       <c r="Q117" t="n">
-        <v>18.46526315789474</v>
+        <v>37.21634615384616</v>
       </c>
     </row>
   </sheetData>

--- a/data/Daily_Scores.xlsx
+++ b/data/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q117"/>
+  <dimension ref="A1:Q121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6466,7 +6466,7 @@
         <v>8.218690085247859</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>7.980945831662394</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -6502,7 +6502,7 @@
         <v>36.05300997316218</v>
       </c>
       <c r="Q106" t="n">
-        <v>45.22739458511384</v>
+        <v>53.20834041677622</v>
       </c>
     </row>
     <row r="107">
@@ -6523,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>5.124007936507937</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -6559,7 +6559,7 @@
         <v>13.25767824905146</v>
       </c>
       <c r="Q107" t="n">
-        <v>31.37726329087441</v>
+        <v>36.50127122738235</v>
       </c>
     </row>
     <row r="108">
@@ -6580,7 +6580,7 @@
         <v>9.833333333333334</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>20</v>
       </c>
       <c r="Q108" t="n">
-        <v>37.3</v>
+        <v>47.13333333333333</v>
       </c>
     </row>
     <row r="109">
@@ -6694,7 +6694,7 @@
         <v>10</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>9.328147021399529</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -6730,7 +6730,7 @@
         <v>30.06714821370608</v>
       </c>
       <c r="Q110" t="n">
-        <v>45.53468343097406</v>
+        <v>54.86283045237359</v>
       </c>
     </row>
     <row r="111">
@@ -6751,7 +6751,7 @@
         <v>9.074340829688456</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>6.245236604695987</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -6787,7 +6787,7 @@
         <v>7.044444444444444</v>
       </c>
       <c r="Q111" t="n">
-        <v>29.29682126768613</v>
+        <v>35.54205787238212</v>
       </c>
     </row>
     <row r="112">
@@ -6808,7 +6808,7 @@
         <v>9.4</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -6844,7 +6844,7 @@
         <v>14.6</v>
       </c>
       <c r="Q112" t="n">
-        <v>43.7</v>
+        <v>53.7</v>
       </c>
     </row>
     <row r="113">
@@ -6865,7 +6865,7 @@
         <v>9.229471854492321</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>7.089938841587715</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
@@ -6901,7 +6901,7 @@
         <v>10</v>
       </c>
       <c r="Q113" t="n">
-        <v>18.65759928261975</v>
+        <v>25.74753812420746</v>
       </c>
     </row>
     <row r="114">
@@ -6922,7 +6922,7 @@
         <v>9.880056006528793</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>7.402296470459273</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -6931,7 +6931,7 @@
         <v>10</v>
       </c>
       <c r="H114" t="n">
-        <v>7.921945098894121</v>
+        <v>8.092028145445807</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -6946,7 +6946,7 @@
         <v>0.9980251918540667</v>
       </c>
       <c r="M114" t="n">
-        <v>9.515892079774515</v>
+        <v>9.901191204442394</v>
       </c>
       <c r="N114" t="n">
         <v>0</v>
@@ -6958,7 +6958,7 @@
         <v>27.48833009504732</v>
       </c>
       <c r="Q114" t="n">
-        <v>47.31789318519743</v>
+        <v>55.27557182687627</v>
       </c>
     </row>
     <row r="115">
@@ -6997,25 +6997,25 @@
         <v>0</v>
       </c>
       <c r="K115" t="n">
-        <v>7.897378174494714</v>
+        <v>8.435972549596755</v>
       </c>
       <c r="L115" t="n">
         <v>0</v>
       </c>
       <c r="M115" t="n">
-        <v>5.863557858376511</v>
+        <v>7.837404391808537</v>
       </c>
       <c r="N115" t="n">
         <v>0</v>
       </c>
       <c r="O115" t="n">
-        <v>6.906506792454215</v>
+        <v>7.008266966619745</v>
       </c>
       <c r="P115" t="n">
-        <v>16.90650679245422</v>
+        <v>17.00826696661974</v>
       </c>
       <c r="Q115" t="n">
-        <v>32.31311945008438</v>
+        <v>34.82556035861845</v>
       </c>
     </row>
     <row r="116">
@@ -7036,7 +7036,7 @@
         <v>6.266666666666666</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>7.133333333333333</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -7072,7 +7072,7 @@
         <v>23.8</v>
       </c>
       <c r="Q116" t="n">
-        <v>46.26666666666667</v>
+        <v>53.4</v>
       </c>
     </row>
     <row r="117">
@@ -7130,6 +7130,234 @@
       </c>
       <c r="Q117" t="n">
         <v>37.21634615384616</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2024-11-30</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>9.124991908184814</v>
+      </c>
+      <c r="D118" t="n">
+        <v>10</v>
+      </c>
+      <c r="E118" t="n">
+        <v>10</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>10</v>
+      </c>
+      <c r="H118" t="n">
+        <v>9.830920632635912</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>10</v>
+      </c>
+      <c r="K118" t="n">
+        <v>5.562740642286723</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>-1.524697004895697</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" t="n">
+        <v>9.828778776927553</v>
+      </c>
+      <c r="P118" t="n">
+        <v>28.95377068511237</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>43.86896427002694</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2024-11-30</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>10</v>
+      </c>
+      <c r="E119" t="n">
+        <v>10</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>10</v>
+      </c>
+      <c r="H119" t="n">
+        <v>7.157405642423475</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>10</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>5</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="n">
+        <v>6.260030391873193</v>
+      </c>
+      <c r="P119" t="n">
+        <v>16.26003039187319</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>42.15740564242348</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2024-11-30</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>9.633333333333333</v>
+      </c>
+      <c r="D120" t="n">
+        <v>10</v>
+      </c>
+      <c r="E120" t="n">
+        <v>6.066666666666666</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>10</v>
+      </c>
+      <c r="H120" t="n">
+        <v>9.533333333333333</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>10</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>7.533333333333335</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" t="n">
+        <v>6.800000000000001</v>
+      </c>
+      <c r="P120" t="n">
+        <v>16.43333333333333</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>53.13333333333334</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2024-11-30</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>8.004600780385532</v>
+      </c>
+      <c r="D121" t="n">
+        <v>10</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>10</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>7.86538461538462</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>7.077240953153364</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P121" t="n">
+        <v>8.004600780385532</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>34.94262556853798</v>
       </c>
     </row>
   </sheetData>

--- a/data/Daily_Scores.xlsx
+++ b/data/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q121"/>
+  <dimension ref="A1:Q125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6943,7 +6943,7 @@
         <v>10</v>
       </c>
       <c r="L114" t="n">
-        <v>0.9980251918540667</v>
+        <v>8.676733311291667</v>
       </c>
       <c r="M114" t="n">
         <v>9.901191204442394</v>
@@ -6955,7 +6955,7 @@
         <v>10</v>
       </c>
       <c r="P114" t="n">
-        <v>27.48833009504732</v>
+        <v>35.16703821448492</v>
       </c>
       <c r="Q114" t="n">
         <v>55.27557182687627</v>
@@ -7000,7 +7000,7 @@
         <v>8.435972549596755</v>
       </c>
       <c r="L115" t="n">
-        <v>0</v>
+        <v>5.606375606375607</v>
       </c>
       <c r="M115" t="n">
         <v>7.837404391808537</v>
@@ -7012,7 +7012,7 @@
         <v>7.008266966619745</v>
       </c>
       <c r="P115" t="n">
-        <v>17.00826696661974</v>
+        <v>22.61464257299535</v>
       </c>
       <c r="Q115" t="n">
         <v>34.82556035861845</v>
@@ -7144,7 +7144,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>9.124991908184814</v>
+        <v>9.13518453291916</v>
       </c>
       <c r="D118" t="n">
         <v>10</v>
@@ -7159,7 +7159,7 @@
         <v>10</v>
       </c>
       <c r="H118" t="n">
-        <v>9.830920632635912</v>
+        <v>9.841609344960935</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -7168,13 +7168,13 @@
         <v>10</v>
       </c>
       <c r="K118" t="n">
-        <v>5.562740642286723</v>
+        <v>9.449634920163826</v>
       </c>
       <c r="L118" t="n">
-        <v>0</v>
+        <v>9.63139624128236</v>
       </c>
       <c r="M118" t="n">
-        <v>-1.524697004895697</v>
+        <v>10</v>
       </c>
       <c r="N118" t="n">
         <v>0</v>
@@ -7183,10 +7183,10 @@
         <v>9.828778776927553</v>
       </c>
       <c r="P118" t="n">
-        <v>28.95377068511237</v>
+        <v>38.59535955112908</v>
       </c>
       <c r="Q118" t="n">
-        <v>43.86896427002694</v>
+        <v>59.29124426512476</v>
       </c>
     </row>
     <row r="119">
@@ -7216,7 +7216,7 @@
         <v>10</v>
       </c>
       <c r="H119" t="n">
-        <v>7.157405642423475</v>
+        <v>7.185387557370603</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -7225,13 +7225,13 @@
         <v>10</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>7.951227089158124</v>
       </c>
       <c r="L119" t="n">
-        <v>0</v>
+        <v>5.45337239310874</v>
       </c>
       <c r="M119" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N119" t="n">
         <v>0</v>
@@ -7240,10 +7240,10 @@
         <v>6.260030391873193</v>
       </c>
       <c r="P119" t="n">
-        <v>16.26003039187319</v>
+        <v>21.71340278498193</v>
       </c>
       <c r="Q119" t="n">
-        <v>42.15740564242348</v>
+        <v>55.13661464652873</v>
       </c>
     </row>
     <row r="120">
@@ -7285,7 +7285,7 @@
         <v>10</v>
       </c>
       <c r="L120" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="M120" t="n">
         <v>7.533333333333335</v>
@@ -7297,7 +7297,7 @@
         <v>6.800000000000001</v>
       </c>
       <c r="P120" t="n">
-        <v>16.43333333333333</v>
+        <v>24.83333333333333</v>
       </c>
       <c r="Q120" t="n">
         <v>53.13333333333334</v>
@@ -7358,6 +7358,234 @@
       </c>
       <c r="Q121" t="n">
         <v>34.94262556853798</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>8.340327407208228</v>
+      </c>
+      <c r="D122" t="n">
+        <v>10</v>
+      </c>
+      <c r="E122" t="n">
+        <v>10</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>10</v>
+      </c>
+      <c r="H122" t="n">
+        <v>6.541810220384716</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>10</v>
+      </c>
+      <c r="K122" t="n">
+        <v>10</v>
+      </c>
+      <c r="L122" t="n">
+        <v>1.735386916498895</v>
+      </c>
+      <c r="M122" t="n">
+        <v>8.864565952737857</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" t="n">
+        <v>9.000520402595962</v>
+      </c>
+      <c r="P122" t="n">
+        <v>29.07623472630308</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>55.40637617312257</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>10</v>
+      </c>
+      <c r="E123" t="n">
+        <v>10</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>8.520410756951858</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>10</v>
+      </c>
+      <c r="K123" t="n">
+        <v>10</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>6.110288675055514</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0</v>
+      </c>
+      <c r="O123" t="n">
+        <v>6.07214498166978</v>
+      </c>
+      <c r="P123" t="n">
+        <v>16.07214498166978</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>44.63069943200738</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>10</v>
+      </c>
+      <c r="D124" t="n">
+        <v>10</v>
+      </c>
+      <c r="E124" t="n">
+        <v>10</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>10</v>
+      </c>
+      <c r="H124" t="n">
+        <v>10</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>10</v>
+      </c>
+      <c r="L124" t="n">
+        <v>10</v>
+      </c>
+      <c r="M124" t="n">
+        <v>10</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" t="n">
+        <v>8.933333333333334</v>
+      </c>
+      <c r="P124" t="n">
+        <v>28.93333333333333</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>10</v>
+      </c>
+      <c r="D125" t="n">
+        <v>10</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>10</v>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>9.95673076923077</v>
+      </c>
+      <c r="L125" t="n">
+        <v>10</v>
+      </c>
+      <c r="M125" t="n">
+        <v>10</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" t="n">
+        <v>0</v>
+      </c>
+      <c r="P125" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>49.95673076923077</v>
       </c>
     </row>
   </sheetData>
